--- a/Code/public/Venator_Consuting_Exported_file_text_analysis_1_1.xlsx
+++ b/Code/public/Venator_Consuting_Exported_file_text_analysis_1_1.xlsx
@@ -41,9 +41,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,13 +463,13 @@
         <v>KZ</v>
       </c>
       <c r="G2" t="str">
-        <v>269033.44</v>
-      </c>
-      <c r="L2" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P2" s="1">
-        <v>43737.875</v>
+        <v>269.033,44</v>
+      </c>
+      <c r="L2" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P2" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q2" t="str">
         <v>0</v>
@@ -490,13 +489,13 @@
         <v>KZ</v>
       </c>
       <c r="G3" t="str">
-        <v>21162.84</v>
-      </c>
-      <c r="L3" s="1">
-        <v>43591.875</v>
-      </c>
-      <c r="P3" s="1">
-        <v>43737.875</v>
+        <v>21.162,84</v>
+      </c>
+      <c r="L3" t="str">
+        <v>07.05.2019</v>
+      </c>
+      <c r="P3" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q3" t="str">
         <v>0</v>
@@ -516,13 +515,13 @@
         <v>KZ</v>
       </c>
       <c r="G4" t="str">
-        <v>-21162.84</v>
-      </c>
-      <c r="L4" s="1">
-        <v>43591.875</v>
-      </c>
-      <c r="P4" s="1">
-        <v>43737.875</v>
+        <v>-21.162,84</v>
+      </c>
+      <c r="L4" t="str">
+        <v>07.05.2019</v>
+      </c>
+      <c r="P4" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q4" t="str">
         <v>0</v>
@@ -542,13 +541,13 @@
         <v>KZ</v>
       </c>
       <c r="G5" t="str">
-        <v>21162.00</v>
-      </c>
-      <c r="L5" s="1">
-        <v>43607.875</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43737.875</v>
+        <v>21.162,00</v>
+      </c>
+      <c r="L5" t="str">
+        <v>23.05.2019</v>
+      </c>
+      <c r="P5" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q5" t="str">
         <v>0</v>
@@ -568,13 +567,13 @@
         <v>KZ</v>
       </c>
       <c r="G6" t="str">
-        <v>14831.00</v>
-      </c>
-      <c r="L6" s="1">
-        <v>43669.875</v>
-      </c>
-      <c r="P6" s="1">
-        <v>43737.875</v>
+        <v>14.831,00</v>
+      </c>
+      <c r="L6" t="str">
+        <v>24.07.2019</v>
+      </c>
+      <c r="P6" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q6" t="str">
         <v>0</v>
@@ -594,13 +593,13 @@
         <v>KZ</v>
       </c>
       <c r="G7" t="str">
-        <v>-120608.63</v>
-      </c>
-      <c r="L7" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P7" s="1">
-        <v>43737.875</v>
+        <v>-120.608,63</v>
+      </c>
+      <c r="L7" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P7" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q7" t="str">
         <v>0</v>
@@ -617,13 +616,13 @@
         <v>KZ</v>
       </c>
       <c r="G8" t="str">
-        <v>-86678.72</v>
-      </c>
-      <c r="L8" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P8" s="1">
-        <v>43737.875</v>
+        <v>-86.678,72</v>
+      </c>
+      <c r="L8" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P8" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q8" t="str">
         <v>0</v>
@@ -640,13 +639,13 @@
         <v>KZ</v>
       </c>
       <c r="G9" t="str">
-        <v>1950.00</v>
-      </c>
-      <c r="L9" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P9" s="1">
-        <v>43737.875</v>
+        <v>1.950,00</v>
+      </c>
+      <c r="L9" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P9" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q9" t="str">
         <v>0</v>
@@ -666,13 +665,13 @@
         <v>KZ</v>
       </c>
       <c r="G10" t="str">
-        <v>6831.17</v>
-      </c>
-      <c r="L10" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P10" s="1">
-        <v>43737.875</v>
+        <v>6.831,17</v>
+      </c>
+      <c r="L10" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P10" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q10" t="str">
         <v>0</v>
@@ -692,13 +691,13 @@
         <v>KZ</v>
       </c>
       <c r="G11" t="str">
-        <v>-319.79</v>
-      </c>
-      <c r="L11" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P11" s="1">
-        <v>43737.875</v>
+        <v>-319,79</v>
+      </c>
+      <c r="L11" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P11" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q11" t="str">
         <v>0</v>
@@ -715,13 +714,13 @@
         <v>KZ</v>
       </c>
       <c r="G12" t="str">
-        <v>0.50</v>
-      </c>
-      <c r="L12" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P12" s="1">
-        <v>43737.875</v>
+        <v>0,50</v>
+      </c>
+      <c r="L12" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P12" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q12" t="str">
         <v>0</v>
@@ -741,13 +740,13 @@
         <v>KZ</v>
       </c>
       <c r="G13" t="str">
-        <v>0.50</v>
-      </c>
-      <c r="L13" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P13" s="1">
-        <v>43737.875</v>
+        <v>0,50</v>
+      </c>
+      <c r="L13" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P13" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q13" t="str">
         <v>0</v>
@@ -767,13 +766,13 @@
         <v>KZ</v>
       </c>
       <c r="G14" t="str">
-        <v>194117.68</v>
-      </c>
-      <c r="L14" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P14" s="1">
-        <v>43737.875</v>
+        <v>194.117,68</v>
+      </c>
+      <c r="L14" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P14" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q14" t="str">
         <v>0</v>
@@ -793,13 +792,13 @@
         <v>KZ</v>
       </c>
       <c r="G15" t="str">
-        <v>2183.18</v>
-      </c>
-      <c r="L15" s="1">
-        <v>43593.875</v>
-      </c>
-      <c r="P15" s="1">
-        <v>43737.875</v>
+        <v>2.183,18</v>
+      </c>
+      <c r="L15" t="str">
+        <v>09.05.2019</v>
+      </c>
+      <c r="P15" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q15" t="str">
         <v>0</v>
@@ -819,13 +818,13 @@
         <v>KZ</v>
       </c>
       <c r="G16" t="str">
-        <v>-8040.82</v>
-      </c>
-      <c r="L16" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P16" s="1">
-        <v>43737.875</v>
+        <v>-8.040,82</v>
+      </c>
+      <c r="L16" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P16" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q16" t="str">
         <v>0</v>
@@ -842,13 +841,13 @@
         <v>KZ</v>
       </c>
       <c r="G17" t="str">
-        <v>8448.34</v>
-      </c>
-      <c r="L17" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P17" s="1">
-        <v>43737.875</v>
+        <v>8.448,34</v>
+      </c>
+      <c r="L17" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P17" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q17" t="str">
         <v>0</v>
@@ -868,13 +867,13 @@
         <v>KZ</v>
       </c>
       <c r="G18" t="str">
-        <v>-203.33</v>
-      </c>
-      <c r="L18" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P18" s="1">
-        <v>43737.875</v>
+        <v>-203,33</v>
+      </c>
+      <c r="L18" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P18" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q18" t="str">
         <v>0</v>
@@ -891,13 +890,13 @@
         <v>KZ</v>
       </c>
       <c r="G19" t="str">
-        <v>0.50</v>
-      </c>
-      <c r="L19" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P19" s="1">
-        <v>43737.875</v>
+        <v>0,50</v>
+      </c>
+      <c r="L19" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P19" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q19" t="str">
         <v>0</v>
@@ -917,13 +916,13 @@
         <v>KZ</v>
       </c>
       <c r="G20" t="str">
-        <v>3.50</v>
-      </c>
-      <c r="L20" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P20" s="1">
-        <v>43737.875</v>
+        <v>3,50</v>
+      </c>
+      <c r="L20" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P20" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q20" t="str">
         <v>0</v>
@@ -943,13 +942,13 @@
         <v>KZ</v>
       </c>
       <c r="G21" t="str">
-        <v>62313.01</v>
-      </c>
-      <c r="L21" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P21" s="1">
-        <v>43737.875</v>
+        <v>62.313,01</v>
+      </c>
+      <c r="L21" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P21" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q21" t="str">
         <v>0</v>
@@ -969,13 +968,13 @@
         <v>KZ</v>
       </c>
       <c r="G22" t="str">
-        <v>1279.81</v>
-      </c>
-      <c r="L22" s="1">
-        <v>43628.875</v>
-      </c>
-      <c r="P22" s="1">
-        <v>43737.875</v>
+        <v>1.279,81</v>
+      </c>
+      <c r="L22" t="str">
+        <v>13.06.2019</v>
+      </c>
+      <c r="P22" t="str">
+        <v>30.09.2019</v>
       </c>
       <c r="Q22" t="str">
         <v>0</v>
@@ -995,13 +994,13 @@
         <v>KZ</v>
       </c>
       <c r="G23" t="str">
-        <v>-5314.24</v>
-      </c>
-      <c r="L23" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P23" s="1">
-        <v>43828.91666666667</v>
+        <v>-5.314,24</v>
+      </c>
+      <c r="L23" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P23" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q23" t="str">
         <v>0</v>
@@ -1018,13 +1017,13 @@
         <v>KZ</v>
       </c>
       <c r="G24" t="str">
-        <v>7995.53</v>
-      </c>
-      <c r="L24" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P24" s="1">
-        <v>43828.91666666667</v>
+        <v>7.995,53</v>
+      </c>
+      <c r="L24" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P24" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q24" t="str">
         <v>0</v>
@@ -1044,13 +1043,13 @@
         <v>KZ</v>
       </c>
       <c r="G25" t="str">
-        <v>-1586.90</v>
-      </c>
-      <c r="L25" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P25" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.586,90</v>
+      </c>
+      <c r="L25" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P25" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q25" t="str">
         <v>0</v>
@@ -1067,13 +1066,13 @@
         <v>KZ</v>
       </c>
       <c r="G26" t="str">
-        <v>3986.67</v>
-      </c>
-      <c r="L26" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P26" s="1">
-        <v>43828.91666666667</v>
+        <v>3.986,67</v>
+      </c>
+      <c r="L26" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P26" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q26" t="str">
         <v>0</v>
@@ -1093,13 +1092,13 @@
         <v>KZ</v>
       </c>
       <c r="G27" t="str">
-        <v>-229.79</v>
-      </c>
-      <c r="L27" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P27" s="1">
-        <v>43828.91666666667</v>
+        <v>-229,79</v>
+      </c>
+      <c r="L27" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P27" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q27" t="str">
         <v>0</v>
@@ -1116,13 +1115,13 @@
         <v>KZ</v>
       </c>
       <c r="G28" t="str">
-        <v>19885.02</v>
-      </c>
-      <c r="L28" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P28" s="1">
-        <v>43828.91666666667</v>
+        <v>19.885,02</v>
+      </c>
+      <c r="L28" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P28" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q28" t="str">
         <v>0</v>
@@ -1142,13 +1141,13 @@
         <v>KZ</v>
       </c>
       <c r="G29" t="str">
-        <v>1338.62</v>
-      </c>
-      <c r="L29" s="1">
-        <v>43628.875</v>
-      </c>
-      <c r="P29" s="1">
-        <v>43828.91666666667</v>
+        <v>1.338,62</v>
+      </c>
+      <c r="L29" t="str">
+        <v>13.06.2019</v>
+      </c>
+      <c r="P29" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q29" t="str">
         <v>0</v>
@@ -1168,13 +1167,13 @@
         <v>KZ</v>
       </c>
       <c r="G30" t="str">
-        <v>-1338.62</v>
-      </c>
-      <c r="L30" s="1">
-        <v>43628.875</v>
-      </c>
-      <c r="P30" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.338,62</v>
+      </c>
+      <c r="L30" t="str">
+        <v>13.06.2019</v>
+      </c>
+      <c r="P30" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q30" t="str">
         <v>0</v>
@@ -1194,13 +1193,13 @@
         <v>ZP</v>
       </c>
       <c r="G31" t="str">
-        <v>-2944.99</v>
-      </c>
-      <c r="L31" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P31" s="1">
-        <v>43828.91666666667</v>
+        <v>-2.944,99</v>
+      </c>
+      <c r="L31" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P31" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q31" t="str">
         <v>0</v>
@@ -1217,13 +1216,13 @@
         <v>ZP</v>
       </c>
       <c r="G32" t="str">
-        <v>341.25</v>
-      </c>
-      <c r="L32" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P32" s="1">
-        <v>43828.91666666667</v>
+        <v>341,25</v>
+      </c>
+      <c r="L32" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P32" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q32" t="str">
         <v>0</v>
@@ -1243,13 +1242,13 @@
         <v>ZP</v>
       </c>
       <c r="G33" t="str">
-        <v>-339.25</v>
-      </c>
-      <c r="L33" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P33" s="1">
-        <v>43828.91666666667</v>
+        <v>-339,25</v>
+      </c>
+      <c r="L33" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P33" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q33" t="str">
         <v>0</v>
@@ -1266,13 +1265,13 @@
         <v>ZP</v>
       </c>
       <c r="G34" t="str">
-        <v>0.50</v>
-      </c>
-      <c r="L34" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P34" s="1">
-        <v>43828.91666666667</v>
+        <v>0,50</v>
+      </c>
+      <c r="L34" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P34" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q34" t="str">
         <v>0</v>
@@ -1292,13 +1291,13 @@
         <v>ZP</v>
       </c>
       <c r="G35" t="str">
-        <v>0.50</v>
-      </c>
-      <c r="L35" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P35" s="1">
-        <v>43828.91666666667</v>
+        <v>0,50</v>
+      </c>
+      <c r="L35" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P35" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q35" t="str">
         <v>0</v>
@@ -1318,13 +1317,13 @@
         <v>ZP</v>
       </c>
       <c r="G36" t="str">
-        <v>247.90</v>
-      </c>
-      <c r="L36" s="1">
-        <v>43593.875</v>
-      </c>
-      <c r="P36" s="1">
-        <v>43828.91666666667</v>
+        <v>247,90</v>
+      </c>
+      <c r="L36" t="str">
+        <v>09.05.2019</v>
+      </c>
+      <c r="P36" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q36" t="str">
         <v>0</v>
@@ -1344,13 +1343,13 @@
         <v>ZP</v>
       </c>
       <c r="G37" t="str">
-        <v>247.90</v>
-      </c>
-      <c r="L37" s="1">
-        <v>43593.875</v>
-      </c>
-      <c r="P37" s="1">
-        <v>43828.91666666667</v>
+        <v>247,90</v>
+      </c>
+      <c r="L37" t="str">
+        <v>09.05.2019</v>
+      </c>
+      <c r="P37" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q37" t="str">
         <v>0</v>
@@ -1370,13 +1369,13 @@
         <v>ZP</v>
       </c>
       <c r="G38" t="str">
-        <v>301.28</v>
-      </c>
-      <c r="L38" s="1">
-        <v>43593.875</v>
-      </c>
-      <c r="P38" s="1">
-        <v>43828.91666666667</v>
+        <v>301,28</v>
+      </c>
+      <c r="L38" t="str">
+        <v>09.05.2019</v>
+      </c>
+      <c r="P38" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q38" t="str">
         <v>0</v>
@@ -1396,13 +1395,13 @@
         <v>ZP</v>
       </c>
       <c r="G39" t="str">
-        <v>428.84</v>
-      </c>
-      <c r="L39" s="1">
-        <v>43593.875</v>
-      </c>
-      <c r="P39" s="1">
-        <v>43828.91666666667</v>
+        <v>428,84</v>
+      </c>
+      <c r="L39" t="str">
+        <v>09.05.2019</v>
+      </c>
+      <c r="P39" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q39" t="str">
         <v>0</v>
@@ -1422,13 +1421,13 @@
         <v>ZP</v>
       </c>
       <c r="G40" t="str">
-        <v>324.25</v>
-      </c>
-      <c r="L40" s="1">
-        <v>43599.875</v>
-      </c>
-      <c r="P40" s="1">
-        <v>43828.91666666667</v>
+        <v>324,25</v>
+      </c>
+      <c r="L40" t="str">
+        <v>15.05.2019</v>
+      </c>
+      <c r="P40" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q40" t="str">
         <v>0</v>
@@ -1448,13 +1447,13 @@
         <v>ZP</v>
       </c>
       <c r="G41" t="str">
-        <v>591.75</v>
-      </c>
-      <c r="L41" s="1">
-        <v>43599.875</v>
-      </c>
-      <c r="P41" s="1">
-        <v>43828.91666666667</v>
+        <v>591,75</v>
+      </c>
+      <c r="L41" t="str">
+        <v>15.05.2019</v>
+      </c>
+      <c r="P41" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q41" t="str">
         <v>0</v>
@@ -1474,13 +1473,13 @@
         <v>ZP</v>
       </c>
       <c r="G42" t="str">
-        <v>672.16</v>
-      </c>
-      <c r="L42" s="1">
-        <v>43599.875</v>
-      </c>
-      <c r="P42" s="1">
-        <v>43828.91666666667</v>
+        <v>672,16</v>
+      </c>
+      <c r="L42" t="str">
+        <v>15.05.2019</v>
+      </c>
+      <c r="P42" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q42" t="str">
         <v>0</v>
@@ -1500,13 +1499,13 @@
         <v>ZP</v>
       </c>
       <c r="G43" t="str">
-        <v>128.05</v>
-      </c>
-      <c r="L43" s="1">
-        <v>43732.875</v>
-      </c>
-      <c r="P43" s="1">
-        <v>43828.91666666667</v>
+        <v>128,05</v>
+      </c>
+      <c r="L43" t="str">
+        <v>25.09.2019</v>
+      </c>
+      <c r="P43" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q43" t="str">
         <v>0</v>
@@ -1526,13 +1525,13 @@
         <v>ZP</v>
       </c>
       <c r="G44" t="str">
-        <v>-2942.13</v>
-      </c>
-      <c r="L44" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P44" s="1">
-        <v>43828.91666666667</v>
+        <v>-2.942,13</v>
+      </c>
+      <c r="L44" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P44" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q44" t="str">
         <v>0</v>
@@ -1549,13 +1548,13 @@
         <v>ZP</v>
       </c>
       <c r="G45" t="str">
-        <v>23292.74</v>
-      </c>
-      <c r="L45" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P45" s="1">
-        <v>43828.91666666667</v>
+        <v>23.292,74</v>
+      </c>
+      <c r="L45" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P45" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q45" t="str">
         <v>0</v>
@@ -1575,13 +1574,13 @@
         <v>ZP</v>
       </c>
       <c r="G46" t="str">
-        <v>-11589.76</v>
-      </c>
-      <c r="L46" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P46" s="1">
-        <v>43828.91666666667</v>
+        <v>-11.589,76</v>
+      </c>
+      <c r="L46" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P46" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q46" t="str">
         <v>0</v>
@@ -1598,13 +1597,13 @@
         <v>ZP</v>
       </c>
       <c r="G47" t="str">
-        <v>772.39</v>
-      </c>
-      <c r="L47" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P47" s="1">
-        <v>43828.91666666667</v>
+        <v>772,39</v>
+      </c>
+      <c r="L47" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P47" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q47" t="str">
         <v>0</v>
@@ -1624,13 +1623,13 @@
         <v>ZP</v>
       </c>
       <c r="G48" t="str">
-        <v>-452.94</v>
-      </c>
-      <c r="L48" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P48" s="1">
-        <v>43828.91666666667</v>
+        <v>-452,94</v>
+      </c>
+      <c r="L48" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P48" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q48" t="str">
         <v>0</v>
@@ -1647,13 +1646,13 @@
         <v>ZP</v>
       </c>
       <c r="G49" t="str">
-        <v>260.00</v>
-      </c>
-      <c r="L49" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P49" s="1">
-        <v>43828.91666666667</v>
+        <v>260,00</v>
+      </c>
+      <c r="L49" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P49" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q49" t="str">
         <v>0</v>
@@ -1673,13 +1672,13 @@
         <v>ZP</v>
       </c>
       <c r="G50" t="str">
-        <v>77152.00</v>
-      </c>
-      <c r="L50" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P50" s="1">
-        <v>43828.91666666667</v>
+        <v>77.152,00</v>
+      </c>
+      <c r="L50" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P50" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q50" t="str">
         <v>0</v>
@@ -1702,13 +1701,13 @@
         <v>ZP</v>
       </c>
       <c r="G51" t="str">
-        <v>-1407.00</v>
-      </c>
-      <c r="L51" s="1">
-        <v>43592.875</v>
-      </c>
-      <c r="P51" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.407,00</v>
+      </c>
+      <c r="L51" t="str">
+        <v>08.05.2019</v>
+      </c>
+      <c r="P51" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q51" t="str">
         <v>0</v>
@@ -1731,13 +1730,13 @@
         <v>ZP</v>
       </c>
       <c r="G52" t="str">
-        <v>-1411.00</v>
-      </c>
-      <c r="L52" s="1">
-        <v>43622.875</v>
-      </c>
-      <c r="P52" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.411,00</v>
+      </c>
+      <c r="L52" t="str">
+        <v>07.06.2019</v>
+      </c>
+      <c r="P52" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q52" t="str">
         <v>0</v>
@@ -1760,13 +1759,13 @@
         <v>ZP</v>
       </c>
       <c r="G53" t="str">
-        <v>-1507.00</v>
-      </c>
-      <c r="L53" s="1">
-        <v>43653.875</v>
-      </c>
-      <c r="P53" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.507,00</v>
+      </c>
+      <c r="L53" t="str">
+        <v>08.07.2019</v>
+      </c>
+      <c r="P53" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q53" t="str">
         <v>0</v>
@@ -1789,13 +1788,13 @@
         <v>ZP</v>
       </c>
       <c r="G54" t="str">
-        <v>-1507.00</v>
-      </c>
-      <c r="L54" s="1">
-        <v>43655.875</v>
-      </c>
-      <c r="P54" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.507,00</v>
+      </c>
+      <c r="L54" t="str">
+        <v>10.07.2019</v>
+      </c>
+      <c r="P54" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q54" t="str">
         <v>0</v>
@@ -1818,13 +1817,13 @@
         <v>ZP</v>
       </c>
       <c r="G55" t="str">
-        <v>-1511.00</v>
-      </c>
-      <c r="L55" s="1">
-        <v>43684.875</v>
-      </c>
-      <c r="P55" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.511,00</v>
+      </c>
+      <c r="L55" t="str">
+        <v>08.08.2019</v>
+      </c>
+      <c r="P55" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q55" t="str">
         <v>0</v>
@@ -1847,13 +1846,13 @@
         <v>ZP</v>
       </c>
       <c r="G56" t="str">
-        <v>-1511.00</v>
-      </c>
-      <c r="L56" s="1">
-        <v>43688.875</v>
-      </c>
-      <c r="P56" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.511,00</v>
+      </c>
+      <c r="L56" t="str">
+        <v>12.08.2019</v>
+      </c>
+      <c r="P56" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q56" t="str">
         <v>0</v>
@@ -1876,13 +1875,13 @@
         <v>ZP</v>
       </c>
       <c r="G57" t="str">
-        <v>-1514.50</v>
-      </c>
-      <c r="L57" s="1">
-        <v>43713.875</v>
-      </c>
-      <c r="P57" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.514,50</v>
+      </c>
+      <c r="L57" t="str">
+        <v>06.09.2019</v>
+      </c>
+      <c r="P57" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q57" t="str">
         <v>0</v>
@@ -1905,13 +1904,13 @@
         <v>ZP</v>
       </c>
       <c r="G58" t="str">
-        <v>-1514.50</v>
-      </c>
-      <c r="L58" s="1">
-        <v>43717.875</v>
-      </c>
-      <c r="P58" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.514,50</v>
+      </c>
+      <c r="L58" t="str">
+        <v>10.09.2019</v>
+      </c>
+      <c r="P58" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q58" t="str">
         <v>0</v>
@@ -1934,13 +1933,13 @@
         <v>ZP</v>
       </c>
       <c r="G59" t="str">
-        <v>-1518.50</v>
-      </c>
-      <c r="L59" s="1">
-        <v>43745.875</v>
-      </c>
-      <c r="P59" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.518,50</v>
+      </c>
+      <c r="L59" t="str">
+        <v>08.10.2019</v>
+      </c>
+      <c r="P59" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q59" t="str">
         <v>0</v>
@@ -1969,13 +1968,13 @@
         <v>ZP</v>
       </c>
       <c r="G60" t="str">
-        <v>-1518.50</v>
-      </c>
-      <c r="L60" s="1">
-        <v>43745.875</v>
-      </c>
-      <c r="P60" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.518,50</v>
+      </c>
+      <c r="L60" t="str">
+        <v>08.10.2019</v>
+      </c>
+      <c r="P60" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q60" t="str">
         <v>0</v>
@@ -2004,13 +2003,13 @@
         <v>ZP</v>
       </c>
       <c r="G61" t="str">
-        <v>-1522.00</v>
-      </c>
-      <c r="L61" s="1">
-        <v>43776.91666666667</v>
-      </c>
-      <c r="P61" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.522,00</v>
+      </c>
+      <c r="L61" t="str">
+        <v>08.11.2019</v>
+      </c>
+      <c r="P61" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q61" t="str">
         <v>0</v>
@@ -2039,13 +2038,13 @@
         <v>ZP</v>
       </c>
       <c r="G62" t="str">
-        <v>-1522.00</v>
-      </c>
-      <c r="L62" s="1">
-        <v>43779.91666666667</v>
-      </c>
-      <c r="P62" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.522,00</v>
+      </c>
+      <c r="L62" t="str">
+        <v>11.11.2019</v>
+      </c>
+      <c r="P62" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q62" t="str">
         <v>0</v>
@@ -2074,13 +2073,13 @@
         <v>ZP</v>
       </c>
       <c r="G63" t="str">
-        <v>-1526.00</v>
-      </c>
-      <c r="L63" s="1">
-        <v>43807.91666666667</v>
-      </c>
-      <c r="P63" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.526,00</v>
+      </c>
+      <c r="L63" t="str">
+        <v>09.12.2019</v>
+      </c>
+      <c r="P63" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q63" t="str">
         <v>0</v>
@@ -2103,13 +2102,13 @@
         <v>ZP</v>
       </c>
       <c r="G64" t="str">
-        <v>-1526.00</v>
-      </c>
-      <c r="L64" s="1">
-        <v>43808.91666666667</v>
-      </c>
-      <c r="P64" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.526,00</v>
+      </c>
+      <c r="L64" t="str">
+        <v>10.12.2019</v>
+      </c>
+      <c r="P64" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q64" t="str">
         <v>0</v>
@@ -2132,13 +2131,13 @@
         <v>ZP</v>
       </c>
       <c r="G65" t="str">
-        <v>-4300.00</v>
-      </c>
-      <c r="L65" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P65" s="1">
-        <v>43828.91666666667</v>
+        <v>-4.300,00</v>
+      </c>
+      <c r="L65" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P65" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q65" t="str">
         <v>0</v>
@@ -2161,13 +2160,13 @@
         <v>ZP</v>
       </c>
       <c r="G66" t="str">
-        <v>-20000.00</v>
-      </c>
-      <c r="L66" s="1">
-        <v>43585.875</v>
-      </c>
-      <c r="P66" s="1">
-        <v>43828.91666666667</v>
+        <v>-20.000,00</v>
+      </c>
+      <c r="L66" t="str">
+        <v>01.05.2019</v>
+      </c>
+      <c r="P66" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q66" t="str">
         <v>0</v>
@@ -2187,13 +2186,13 @@
         <v>ZP</v>
       </c>
       <c r="G67" t="str">
-        <v>-13800.00</v>
-      </c>
-      <c r="L67" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P67" s="1">
-        <v>43828.91666666667</v>
+        <v>-13.800,00</v>
+      </c>
+      <c r="L67" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P67" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q67" t="str">
         <v>0</v>
@@ -2213,13 +2212,13 @@
         <v>ZP</v>
       </c>
       <c r="G68" t="str">
-        <v>-13800.00</v>
-      </c>
-      <c r="L68" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P68" s="1">
-        <v>43828.91666666667</v>
+        <v>-13.800,00</v>
+      </c>
+      <c r="L68" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P68" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q68" t="str">
         <v>0</v>
@@ -2239,13 +2238,13 @@
         <v>ZP</v>
       </c>
       <c r="G69" t="str">
-        <v>20000.00</v>
-      </c>
-      <c r="L69" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P69" s="1">
-        <v>43828.91666666667</v>
+        <v>20.000,00</v>
+      </c>
+      <c r="L69" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P69" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q69" t="str">
         <v>0</v>
@@ -2265,13 +2264,13 @@
         <v>ZP</v>
       </c>
       <c r="G70" t="str">
-        <v>4300.00</v>
-      </c>
-      <c r="L70" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P70" s="1">
-        <v>43828.91666666667</v>
+        <v>4.300,00</v>
+      </c>
+      <c r="L70" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P70" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q70" t="str">
         <v>0</v>
@@ -2291,13 +2290,13 @@
         <v>ZP</v>
       </c>
       <c r="G71" t="str">
-        <v>-4270.00</v>
-      </c>
-      <c r="L71" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P71" s="1">
-        <v>43828.91666666667</v>
+        <v>-4.270,00</v>
+      </c>
+      <c r="L71" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P71" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q71" t="str">
         <v>0</v>
@@ -2317,13 +2316,13 @@
         <v>ZP</v>
       </c>
       <c r="G72" t="str">
-        <v>-2000.00</v>
-      </c>
-      <c r="L72" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P72" s="1">
-        <v>43828.91666666667</v>
+        <v>-2.000,00</v>
+      </c>
+      <c r="L72" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P72" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q72" t="str">
         <v>0</v>
@@ -2343,13 +2342,13 @@
         <v>ZP</v>
       </c>
       <c r="G73" t="str">
-        <v>-5000.00</v>
-      </c>
-      <c r="L73" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P73" s="1">
-        <v>43828.91666666667</v>
+        <v>-5.000,00</v>
+      </c>
+      <c r="L73" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P73" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q73" t="str">
         <v>0</v>
@@ -2369,13 +2368,13 @@
         <v>ZP</v>
       </c>
       <c r="G74" t="str">
-        <v>-7078.00</v>
-      </c>
-      <c r="L74" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P74" s="1">
-        <v>43828.91666666667</v>
+        <v>-7.078,00</v>
+      </c>
+      <c r="L74" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P74" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q74" t="str">
         <v>0</v>
@@ -2395,13 +2394,13 @@
         <v>ZP</v>
       </c>
       <c r="G75" t="str">
-        <v>-1251.00</v>
-      </c>
-      <c r="L75" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P75" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.251,00</v>
+      </c>
+      <c r="L75" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P75" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q75" t="str">
         <v>0</v>
@@ -2421,13 +2420,13 @@
         <v>ZP</v>
       </c>
       <c r="G76" t="str">
-        <v>-6733.00</v>
-      </c>
-      <c r="L76" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P76" s="1">
-        <v>43828.91666666667</v>
+        <v>-6.733,00</v>
+      </c>
+      <c r="L76" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P76" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q76" t="str">
         <v>0</v>
@@ -2447,13 +2446,13 @@
         <v>ZP</v>
       </c>
       <c r="G77" t="str">
-        <v>-292.00</v>
-      </c>
-      <c r="L77" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P77" s="1">
-        <v>43828.91666666667</v>
+        <v>-292,00</v>
+      </c>
+      <c r="L77" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P77" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q77" t="str">
         <v>0</v>
@@ -2473,13 +2472,13 @@
         <v>ZP</v>
       </c>
       <c r="G78" t="str">
-        <v>-17927.00</v>
-      </c>
-      <c r="L78" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P78" s="1">
-        <v>43828.91666666667</v>
+        <v>-17.927,00</v>
+      </c>
+      <c r="L78" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P78" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q78" t="str">
         <v>0</v>
@@ -2499,13 +2498,13 @@
         <v>RE</v>
       </c>
       <c r="G79" t="str">
-        <v>-805.00</v>
-      </c>
-      <c r="L79" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P79" s="1">
-        <v>43828.91666666667</v>
+        <v>-805,00</v>
+      </c>
+      <c r="L79" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P79" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q79" t="str">
         <v>0</v>
@@ -2525,13 +2524,13 @@
         <v>RE</v>
       </c>
       <c r="G80" t="str">
-        <v>-500.00</v>
-      </c>
-      <c r="L80" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P80" s="1">
-        <v>43828.91666666667</v>
+        <v>-500,00</v>
+      </c>
+      <c r="L80" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P80" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q80" t="str">
         <v>0</v>
@@ -2551,13 +2550,13 @@
         <v>RE</v>
       </c>
       <c r="G81" t="str">
-        <v>-348.00</v>
-      </c>
-      <c r="L81" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P81" s="1">
-        <v>43828.91666666667</v>
+        <v>-348,00</v>
+      </c>
+      <c r="L81" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P81" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q81" t="str">
         <v>0</v>
@@ -2577,13 +2576,13 @@
         <v>RE</v>
       </c>
       <c r="G82" t="str">
-        <v>-215.00</v>
-      </c>
-      <c r="L82" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P82" s="1">
-        <v>43828.91666666667</v>
+        <v>-215,00</v>
+      </c>
+      <c r="L82" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P82" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q82" t="str">
         <v>0</v>
@@ -2603,13 +2602,13 @@
         <v>RE</v>
       </c>
       <c r="G83" t="str">
-        <v>-1250.00</v>
-      </c>
-      <c r="L83" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P83" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.250,00</v>
+      </c>
+      <c r="L83" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P83" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q83" t="str">
         <v>0</v>
@@ -2629,13 +2628,13 @@
         <v>RE</v>
       </c>
       <c r="G84" t="str">
-        <v>-667.00</v>
-      </c>
-      <c r="L84" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P84" s="1">
-        <v>43828.91666666667</v>
+        <v>-667,00</v>
+      </c>
+      <c r="L84" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P84" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q84" t="str">
         <v>0</v>
@@ -2655,13 +2654,13 @@
         <v>RE</v>
       </c>
       <c r="G85" t="str">
-        <v>-4850.00</v>
-      </c>
-      <c r="L85" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P85" s="1">
-        <v>43828.91666666667</v>
+        <v>-4.850,00</v>
+      </c>
+      <c r="L85" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P85" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q85" t="str">
         <v>0</v>
@@ -2681,13 +2680,13 @@
         <v>RE</v>
       </c>
       <c r="G86" t="str">
-        <v>-6202.00</v>
-      </c>
-      <c r="L86" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P86" s="1">
-        <v>43828.91666666667</v>
+        <v>-6.202,00</v>
+      </c>
+      <c r="L86" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P86" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q86" t="str">
         <v>0</v>
@@ -2707,13 +2706,13 @@
         <v>RE</v>
       </c>
       <c r="G87" t="str">
-        <v>-6236.00</v>
-      </c>
-      <c r="L87" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P87" s="1">
-        <v>43828.91666666667</v>
+        <v>-6.236,00</v>
+      </c>
+      <c r="L87" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P87" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q87" t="str">
         <v>0</v>
@@ -2733,13 +2732,13 @@
         <v>RE</v>
       </c>
       <c r="G88" t="str">
-        <v>-721.00</v>
-      </c>
-      <c r="L88" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P88" s="1">
-        <v>43828.91666666667</v>
+        <v>-721,00</v>
+      </c>
+      <c r="L88" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P88" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q88" t="str">
         <v>0</v>
@@ -2759,13 +2758,13 @@
         <v>RE</v>
       </c>
       <c r="G89" t="str">
-        <v>-40.00</v>
-      </c>
-      <c r="L89" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P89" s="1">
-        <v>43828.91666666667</v>
+        <v>-40,00</v>
+      </c>
+      <c r="L89" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P89" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q89" t="str">
         <v>0</v>
@@ -2785,13 +2784,13 @@
         <v>RE</v>
       </c>
       <c r="G90" t="str">
-        <v>-40.00</v>
-      </c>
-      <c r="L90" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P90" s="1">
-        <v>43828.91666666667</v>
+        <v>-40,00</v>
+      </c>
+      <c r="L90" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P90" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q90" t="str">
         <v>0</v>
@@ -2811,13 +2810,13 @@
         <v>RE</v>
       </c>
       <c r="G91" t="str">
-        <v>-1702.00</v>
-      </c>
-      <c r="L91" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P91" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.702,00</v>
+      </c>
+      <c r="L91" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P91" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q91" t="str">
         <v>0</v>
@@ -2837,13 +2836,13 @@
         <v>RE</v>
       </c>
       <c r="G92" t="str">
-        <v>-643.00</v>
-      </c>
-      <c r="L92" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P92" s="1">
-        <v>43828.91666666667</v>
+        <v>-643,00</v>
+      </c>
+      <c r="L92" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P92" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q92" t="str">
         <v>0</v>
@@ -2863,13 +2862,13 @@
         <v>RE</v>
       </c>
       <c r="G93" t="str">
-        <v>-24.00</v>
-      </c>
-      <c r="L93" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P93" s="1">
-        <v>43828.91666666667</v>
+        <v>-24,00</v>
+      </c>
+      <c r="L93" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P93" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q93" t="str">
         <v>0</v>
@@ -2889,13 +2888,13 @@
         <v>RE</v>
       </c>
       <c r="G94" t="str">
-        <v>-73.00</v>
-      </c>
-      <c r="L94" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P94" s="1">
-        <v>43828.91666666667</v>
+        <v>-73,00</v>
+      </c>
+      <c r="L94" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P94" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q94" t="str">
         <v>0</v>
@@ -2915,13 +2914,13 @@
         <v>RE</v>
       </c>
       <c r="G95" t="str">
-        <v>-2809.00</v>
-      </c>
-      <c r="L95" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P95" s="1">
-        <v>43828.91666666667</v>
+        <v>-2.809,00</v>
+      </c>
+      <c r="L95" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P95" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q95" t="str">
         <v>0</v>
@@ -2941,13 +2940,13 @@
         <v>RE</v>
       </c>
       <c r="G96" t="str">
-        <v>-1037.00</v>
-      </c>
-      <c r="L96" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P96" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.037,00</v>
+      </c>
+      <c r="L96" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P96" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q96" t="str">
         <v>0</v>
@@ -2967,13 +2966,13 @@
         <v>RE</v>
       </c>
       <c r="G97" t="str">
-        <v>-9890.00</v>
-      </c>
-      <c r="L97" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P97" s="1">
-        <v>43828.91666666667</v>
+        <v>-9.890,00</v>
+      </c>
+      <c r="L97" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P97" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q97" t="str">
         <v>0</v>
@@ -2993,13 +2992,13 @@
         <v>RE</v>
       </c>
       <c r="G98" t="str">
-        <v>-970.00</v>
-      </c>
-      <c r="L98" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P98" s="1">
-        <v>43828.91666666667</v>
+        <v>-970,00</v>
+      </c>
+      <c r="L98" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P98" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q98" t="str">
         <v>0</v>
@@ -3019,13 +3018,13 @@
         <v>RE</v>
       </c>
       <c r="G99" t="str">
-        <v>-9000.00</v>
-      </c>
-      <c r="L99" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P99" s="1">
-        <v>43828.91666666667</v>
+        <v>-9.000,00</v>
+      </c>
+      <c r="L99" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P99" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q99" t="str">
         <v>0</v>
@@ -3045,13 +3044,13 @@
         <v>RE</v>
       </c>
       <c r="G100" t="str">
-        <v>-18244.00</v>
-      </c>
-      <c r="L100" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P100" s="1">
-        <v>43828.91666666667</v>
+        <v>-18.244,00</v>
+      </c>
+      <c r="L100" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P100" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q100" t="str">
         <v>0</v>
@@ -3071,13 +3070,13 @@
         <v>RE</v>
       </c>
       <c r="G101" t="str">
-        <v>-2500.00</v>
-      </c>
-      <c r="L101" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P101" s="1">
-        <v>43828.91666666667</v>
+        <v>-2.500,00</v>
+      </c>
+      <c r="L101" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P101" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q101" t="str">
         <v>0</v>
@@ -3097,13 +3096,13 @@
         <v>RE</v>
       </c>
       <c r="G102" t="str">
-        <v>-1700.00</v>
-      </c>
-      <c r="L102" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P102" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.700,00</v>
+      </c>
+      <c r="L102" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P102" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q102" t="str">
         <v>0</v>
@@ -3123,13 +3122,13 @@
         <v>RE</v>
       </c>
       <c r="G103" t="str">
-        <v>-43.00</v>
-      </c>
-      <c r="L103" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P103" s="1">
-        <v>43828.91666666667</v>
+        <v>-43,00</v>
+      </c>
+      <c r="L103" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P103" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q103" t="str">
         <v>0</v>
@@ -3149,13 +3148,13 @@
         <v>RE</v>
       </c>
       <c r="G104" t="str">
-        <v>-4430.00</v>
-      </c>
-      <c r="L104" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P104" s="1">
-        <v>43828.91666666667</v>
+        <v>-4.430,00</v>
+      </c>
+      <c r="L104" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P104" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q104" t="str">
         <v>0</v>
@@ -3175,13 +3174,13 @@
         <v>RE</v>
       </c>
       <c r="G105" t="str">
-        <v>-1369.00</v>
-      </c>
-      <c r="L105" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P105" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.369,00</v>
+      </c>
+      <c r="L105" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P105" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q105" t="str">
         <v>0</v>
@@ -3201,13 +3200,13 @@
         <v>RE</v>
       </c>
       <c r="G106" t="str">
-        <v>-458.00</v>
-      </c>
-      <c r="L106" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P106" s="1">
-        <v>43828.91666666667</v>
+        <v>-458,00</v>
+      </c>
+      <c r="L106" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P106" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q106" t="str">
         <v>0</v>
@@ -3227,13 +3226,13 @@
         <v>RE</v>
       </c>
       <c r="G107" t="str">
-        <v>-15000.00</v>
-      </c>
-      <c r="L107" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P107" s="1">
-        <v>43828.91666666667</v>
+        <v>-15.000,00</v>
+      </c>
+      <c r="L107" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P107" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q107" t="str">
         <v>0</v>
@@ -3253,13 +3252,13 @@
         <v>RE</v>
       </c>
       <c r="G108" t="str">
-        <v>-15.00</v>
-      </c>
-      <c r="L108" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P108" s="1">
-        <v>43828.91666666667</v>
+        <v>-15,00</v>
+      </c>
+      <c r="L108" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P108" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q108" t="str">
         <v>0</v>
@@ -3279,13 +3278,13 @@
         <v>RE</v>
       </c>
       <c r="G109" t="str">
-        <v>-8000.00</v>
-      </c>
-      <c r="L109" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P109" s="1">
-        <v>43828.91666666667</v>
+        <v>-8.000,00</v>
+      </c>
+      <c r="L109" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P109" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q109" t="str">
         <v>0</v>
@@ -3305,13 +3304,13 @@
         <v>RE</v>
       </c>
       <c r="G110" t="str">
-        <v>-11680.00</v>
-      </c>
-      <c r="L110" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P110" s="1">
-        <v>43828.91666666667</v>
+        <v>-11.680,00</v>
+      </c>
+      <c r="L110" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P110" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q110" t="str">
         <v>0</v>
@@ -3331,13 +3330,13 @@
         <v>RE</v>
       </c>
       <c r="G111" t="str">
-        <v>-137.00</v>
-      </c>
-      <c r="L111" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P111" s="1">
-        <v>43828.91666666667</v>
+        <v>-137,00</v>
+      </c>
+      <c r="L111" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P111" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q111" t="str">
         <v>0</v>
@@ -3357,13 +3356,13 @@
         <v>RE</v>
       </c>
       <c r="G112" t="str">
-        <v>-10806.00</v>
-      </c>
-      <c r="L112" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P112" s="1">
-        <v>43828.91666666667</v>
+        <v>-10.806,00</v>
+      </c>
+      <c r="L112" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P112" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q112" t="str">
         <v>0</v>
@@ -3383,13 +3382,13 @@
         <v>RE</v>
       </c>
       <c r="G113" t="str">
-        <v>-4993.00</v>
-      </c>
-      <c r="L113" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P113" s="1">
-        <v>43828.91666666667</v>
+        <v>-4.993,00</v>
+      </c>
+      <c r="L113" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P113" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q113" t="str">
         <v>0</v>
@@ -3409,13 +3408,13 @@
         <v>RE</v>
       </c>
       <c r="G114" t="str">
-        <v>-4993.00</v>
-      </c>
-      <c r="L114" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P114" s="1">
-        <v>43828.91666666667</v>
+        <v>-4.993,00</v>
+      </c>
+      <c r="L114" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P114" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q114" t="str">
         <v>0</v>
@@ -3435,13 +3434,13 @@
         <v>RE</v>
       </c>
       <c r="G115" t="str">
-        <v>-20000.00</v>
-      </c>
-      <c r="L115" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P115" s="1">
-        <v>43828.91666666667</v>
+        <v>-20.000,00</v>
+      </c>
+      <c r="L115" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P115" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q115" t="str">
         <v>0</v>
@@ -3461,13 +3460,13 @@
         <v>RE</v>
       </c>
       <c r="G116" t="str">
-        <v>-20000.00</v>
-      </c>
-      <c r="L116" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P116" s="1">
-        <v>43828.91666666667</v>
+        <v>-20.000,00</v>
+      </c>
+      <c r="L116" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P116" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q116" t="str">
         <v>0</v>
@@ -3487,13 +3486,13 @@
         <v>RE</v>
       </c>
       <c r="G117" t="str">
-        <v>-65.00</v>
-      </c>
-      <c r="L117" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P117" s="1">
-        <v>43828.91666666667</v>
+        <v>-65,00</v>
+      </c>
+      <c r="L117" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P117" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q117" t="str">
         <v>0</v>
@@ -3513,13 +3512,13 @@
         <v>RE</v>
       </c>
       <c r="G118" t="str">
-        <v>-65.00</v>
-      </c>
-      <c r="L118" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P118" s="1">
-        <v>43828.91666666667</v>
+        <v>-65,00</v>
+      </c>
+      <c r="L118" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P118" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q118" t="str">
         <v>0</v>
@@ -3539,13 +3538,13 @@
         <v>RE</v>
       </c>
       <c r="G119" t="str">
-        <v>10000.00</v>
-      </c>
-      <c r="L119" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P119" s="1">
-        <v>43828.91666666667</v>
+        <v>10.000,00</v>
+      </c>
+      <c r="L119" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P119" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q119" t="str">
         <v>0</v>
@@ -3565,13 +3564,13 @@
         <v>RE</v>
       </c>
       <c r="G120" t="str">
-        <v>-5000.00</v>
-      </c>
-      <c r="L120" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P120" s="1">
-        <v>43828.91666666667</v>
+        <v>-5.000,00</v>
+      </c>
+      <c r="L120" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P120" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q120" t="str">
         <v>0</v>
@@ -3591,13 +3590,13 @@
         <v>RE</v>
       </c>
       <c r="G121" t="str">
-        <v>-5413.16</v>
-      </c>
-      <c r="L121" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P121" s="1">
-        <v>43828.91666666667</v>
+        <v>-5.413,16</v>
+      </c>
+      <c r="L121" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P121" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q121" t="str">
         <v>0</v>
@@ -3617,13 +3616,13 @@
         <v>RE</v>
       </c>
       <c r="G122" t="str">
-        <v>35000.00</v>
-      </c>
-      <c r="L122" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P122" s="1">
-        <v>43828.91666666667</v>
+        <v>35.000,00</v>
+      </c>
+      <c r="L122" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P122" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q122" t="str">
         <v>0</v>
@@ -3640,13 +3639,13 @@
         <v>RE</v>
       </c>
       <c r="G123" t="str">
-        <v>5000.00</v>
-      </c>
-      <c r="L123" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P123" s="1">
-        <v>43828.91666666667</v>
+        <v>5.000,00</v>
+      </c>
+      <c r="L123" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P123" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q123" t="str">
         <v>0</v>
@@ -3663,13 +3662,13 @@
         <v>RE</v>
       </c>
       <c r="G124" t="str">
-        <v>17500.00</v>
-      </c>
-      <c r="L124" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P124" s="1">
-        <v>43828.91666666667</v>
+        <v>17.500,00</v>
+      </c>
+      <c r="L124" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P124" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q124" t="str">
         <v>0</v>
@@ -3686,13 +3685,13 @@
         <v>RE</v>
       </c>
       <c r="G125" t="str">
-        <v>17500.00</v>
-      </c>
-      <c r="L125" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P125" s="1">
-        <v>43828.91666666667</v>
+        <v>17.500,00</v>
+      </c>
+      <c r="L125" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P125" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q125" t="str">
         <v>0</v>
@@ -3709,13 +3708,13 @@
         <v>RE</v>
       </c>
       <c r="G126" t="str">
-        <v>18971.00</v>
-      </c>
-      <c r="L126" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P126" s="1">
-        <v>43828.91666666667</v>
+        <v>18.971,00</v>
+      </c>
+      <c r="L126" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P126" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q126" t="str">
         <v>0</v>
@@ -3732,13 +3731,13 @@
         <v>RE</v>
       </c>
       <c r="G127" t="str">
-        <v>20000.00</v>
-      </c>
-      <c r="L127" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P127" s="1">
-        <v>43828.91666666667</v>
+        <v>20.000,00</v>
+      </c>
+      <c r="L127" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P127" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q127" t="str">
         <v>0</v>
@@ -3755,13 +3754,13 @@
         <v>RE</v>
       </c>
       <c r="G128" t="str">
-        <v>10000.00</v>
-      </c>
-      <c r="L128" s="1">
-        <v>43615.875</v>
-      </c>
-      <c r="P128" s="1">
-        <v>43828.91666666667</v>
+        <v>10.000,00</v>
+      </c>
+      <c r="L128" t="str">
+        <v>31.05.2019</v>
+      </c>
+      <c r="P128" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q128" t="str">
         <v>0</v>
@@ -3778,13 +3777,13 @@
         <v>RE</v>
       </c>
       <c r="G129" t="str">
-        <v>5413.16</v>
-      </c>
-      <c r="L129" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P129" s="1">
-        <v>43828.91666666667</v>
+        <v>5.413,16</v>
+      </c>
+      <c r="L129" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P129" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q129" t="str">
         <v>0</v>
@@ -3804,13 +3803,13 @@
         <v>RE</v>
       </c>
       <c r="G130" t="str">
-        <v>12643.00</v>
-      </c>
-      <c r="L130" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P130" s="1">
-        <v>43828.91666666667</v>
+        <v>12.643,00</v>
+      </c>
+      <c r="L130" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P130" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q130" t="str">
         <v>0</v>
@@ -3830,13 +3829,13 @@
         <v>RE</v>
       </c>
       <c r="G131" t="str">
-        <v>137.00</v>
-      </c>
-      <c r="L131" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P131" s="1">
-        <v>43828.91666666667</v>
+        <v>137,00</v>
+      </c>
+      <c r="L131" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P131" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q131" t="str">
         <v>0</v>
@@ -3856,13 +3855,13 @@
         <v>RE</v>
       </c>
       <c r="G132" t="str">
-        <v>-18743.00</v>
-      </c>
-      <c r="L132" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P132" s="1">
-        <v>43828.91666666667</v>
+        <v>-18.743,00</v>
+      </c>
+      <c r="L132" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P132" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q132" t="str">
         <v>0</v>
@@ -3882,13 +3881,13 @@
         <v>RE</v>
       </c>
       <c r="G133" t="str">
-        <v>19959.00</v>
-      </c>
-      <c r="L133" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P133" s="1">
-        <v>43828.91666666667</v>
+        <v>19.959,00</v>
+      </c>
+      <c r="L133" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P133" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q133" t="str">
         <v>0</v>
@@ -3908,13 +3907,13 @@
         <v>RE</v>
       </c>
       <c r="G134" t="str">
-        <v>1037.00</v>
-      </c>
-      <c r="L134" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P134" s="1">
-        <v>43828.91666666667</v>
+        <v>1.037,00</v>
+      </c>
+      <c r="L134" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P134" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q134" t="str">
         <v>0</v>
@@ -3934,13 +3933,13 @@
         <v>KR</v>
       </c>
       <c r="G135" t="str">
-        <v>1702.00</v>
-      </c>
-      <c r="L135" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P135" s="1">
-        <v>43828.91666666667</v>
+        <v>1.702,00</v>
+      </c>
+      <c r="L135" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P135" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q135" t="str">
         <v>0</v>
@@ -3960,13 +3959,13 @@
         <v>KR</v>
       </c>
       <c r="G136" t="str">
-        <v>643.00</v>
-      </c>
-      <c r="L136" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P136" s="1">
-        <v>43828.91666666667</v>
+        <v>643,00</v>
+      </c>
+      <c r="L136" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P136" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q136" t="str">
         <v>0</v>
@@ -3986,13 +3985,13 @@
         <v>KR</v>
       </c>
       <c r="G137" t="str">
-        <v>24.00</v>
-      </c>
-      <c r="L137" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P137" s="1">
-        <v>43828.91666666667</v>
+        <v>24,00</v>
+      </c>
+      <c r="L137" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P137" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q137" t="str">
         <v>0</v>
@@ -4012,13 +4011,13 @@
         <v>KR</v>
       </c>
       <c r="G138" t="str">
-        <v>73.00</v>
-      </c>
-      <c r="L138" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P138" s="1">
-        <v>43828.91666666667</v>
+        <v>73,00</v>
+      </c>
+      <c r="L138" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P138" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q138" t="str">
         <v>0</v>
@@ -4038,13 +4037,13 @@
         <v>KR</v>
       </c>
       <c r="G139" t="str">
-        <v>2809.00</v>
-      </c>
-      <c r="L139" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P139" s="1">
-        <v>43828.91666666667</v>
+        <v>2.809,00</v>
+      </c>
+      <c r="L139" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P139" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q139" t="str">
         <v>0</v>
@@ -4064,13 +4063,13 @@
         <v>KR</v>
       </c>
       <c r="G140" t="str">
-        <v>2500.00</v>
-      </c>
-      <c r="L140" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P140" s="1">
-        <v>43828.91666666667</v>
+        <v>2.500,00</v>
+      </c>
+      <c r="L140" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P140" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q140" t="str">
         <v>0</v>
@@ -4090,13 +4089,13 @@
         <v>KR</v>
       </c>
       <c r="G141" t="str">
-        <v>2500.00</v>
-      </c>
-      <c r="L141" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P141" s="1">
-        <v>43828.91666666667</v>
+        <v>2.500,00</v>
+      </c>
+      <c r="L141" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P141" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q141" t="str">
         <v>0</v>
@@ -4116,13 +4115,13 @@
         <v>KR</v>
       </c>
       <c r="G142" t="str">
-        <v>15000.00</v>
-      </c>
-      <c r="L142" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P142" s="1">
-        <v>43828.91666666667</v>
+        <v>15.000,00</v>
+      </c>
+      <c r="L142" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P142" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q142" t="str">
         <v>0</v>
@@ -4142,13 +4141,13 @@
         <v>KR</v>
       </c>
       <c r="G143" t="str">
-        <v>-18971.00</v>
-      </c>
-      <c r="L143" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P143" s="1">
-        <v>43828.91666666667</v>
+        <v>-18.971,00</v>
+      </c>
+      <c r="L143" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P143" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q143" t="str">
         <v>0</v>
@@ -4168,13 +4167,13 @@
         <v>KR</v>
       </c>
       <c r="G144" t="str">
-        <v>667.00</v>
-      </c>
-      <c r="L144" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P144" s="1">
-        <v>43828.91666666667</v>
+        <v>667,00</v>
+      </c>
+      <c r="L144" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P144" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q144" t="str">
         <v>0</v>
@@ -4194,13 +4193,13 @@
         <v>KR</v>
       </c>
       <c r="G145" t="str">
-        <v>40.00</v>
-      </c>
-      <c r="L145" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P145" s="1">
-        <v>43828.91666666667</v>
+        <v>40,00</v>
+      </c>
+      <c r="L145" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P145" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q145" t="str">
         <v>0</v>
@@ -4220,13 +4219,13 @@
         <v>KR</v>
       </c>
       <c r="G146" t="str">
-        <v>4890.00</v>
-      </c>
-      <c r="L146" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P146" s="1">
-        <v>43828.91666666667</v>
+        <v>4.890,00</v>
+      </c>
+      <c r="L146" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P146" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q146" t="str">
         <v>0</v>
@@ -4246,13 +4245,13 @@
         <v>KR</v>
       </c>
       <c r="G147" t="str">
-        <v>6202.00</v>
-      </c>
-      <c r="L147" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P147" s="1">
-        <v>43828.91666666667</v>
+        <v>6.202,00</v>
+      </c>
+      <c r="L147" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P147" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q147" t="str">
         <v>0</v>
@@ -4272,13 +4271,13 @@
         <v>KR</v>
       </c>
       <c r="G148" t="str">
-        <v>6236.00</v>
-      </c>
-      <c r="L148" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P148" s="1">
-        <v>43828.91666666667</v>
+        <v>6.236,00</v>
+      </c>
+      <c r="L148" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P148" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q148" t="str">
         <v>0</v>
@@ -4298,13 +4297,13 @@
         <v>KR</v>
       </c>
       <c r="G149" t="str">
-        <v>721.00</v>
-      </c>
-      <c r="L149" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P149" s="1">
-        <v>43828.91666666667</v>
+        <v>721,00</v>
+      </c>
+      <c r="L149" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P149" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q149" t="str">
         <v>0</v>
@@ -4324,13 +4323,13 @@
         <v>KR</v>
       </c>
       <c r="G150" t="str">
-        <v>215.00</v>
-      </c>
-      <c r="L150" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P150" s="1">
-        <v>43828.91666666667</v>
+        <v>215,00</v>
+      </c>
+      <c r="L150" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P150" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q150" t="str">
         <v>0</v>
@@ -4350,13 +4349,13 @@
         <v>KR</v>
       </c>
       <c r="G151" t="str">
-        <v>5000.00</v>
-      </c>
-      <c r="L151" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P151" s="1">
-        <v>43828.91666666667</v>
+        <v>5.000,00</v>
+      </c>
+      <c r="L151" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P151" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q151" t="str">
         <v>0</v>
@@ -4376,13 +4375,13 @@
         <v>KR</v>
       </c>
       <c r="G152" t="str">
-        <v>5000.00</v>
-      </c>
-      <c r="L152" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P152" s="1">
-        <v>43828.91666666667</v>
+        <v>5.000,00</v>
+      </c>
+      <c r="L152" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P152" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q152" t="str">
         <v>0</v>
@@ -4402,13 +4401,13 @@
         <v>KR</v>
       </c>
       <c r="G153" t="str">
-        <v>1250.00</v>
-      </c>
-      <c r="L153" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P153" s="1">
-        <v>43828.91666666667</v>
+        <v>1.250,00</v>
+      </c>
+      <c r="L153" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P153" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q153" t="str">
         <v>0</v>
@@ -4428,13 +4427,13 @@
         <v>KR</v>
       </c>
       <c r="G154" t="str">
-        <v>18287.00</v>
-      </c>
-      <c r="L154" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P154" s="1">
-        <v>43828.91666666667</v>
+        <v>18.287,00</v>
+      </c>
+      <c r="L154" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P154" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q154" t="str">
         <v>0</v>
@@ -4454,13 +4453,13 @@
         <v>KR</v>
       </c>
       <c r="G155" t="str">
-        <v>-6800.00</v>
-      </c>
-      <c r="L155" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P155" s="1">
-        <v>43828.91666666667</v>
+        <v>-6.800,00</v>
+      </c>
+      <c r="L155" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P155" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q155" t="str">
         <v>0</v>
@@ -4480,13 +4479,13 @@
         <v>KR</v>
       </c>
       <c r="G156" t="str">
-        <v>15005.00</v>
-      </c>
-      <c r="L156" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P156" s="1">
-        <v>43828.91666666667</v>
+        <v>15.005,00</v>
+      </c>
+      <c r="L156" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P156" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q156" t="str">
         <v>0</v>
@@ -4506,13 +4505,13 @@
         <v>KR</v>
       </c>
       <c r="G157" t="str">
-        <v>2348.00</v>
-      </c>
-      <c r="L157" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P157" s="1">
-        <v>43828.91666666667</v>
+        <v>2.348,00</v>
+      </c>
+      <c r="L157" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P157" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q157" t="str">
         <v>0</v>
@@ -4532,13 +4531,13 @@
         <v>KR</v>
       </c>
       <c r="G158" t="str">
-        <v>8000.00</v>
-      </c>
-      <c r="L158" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P158" s="1">
-        <v>43828.91666666667</v>
+        <v>8.000,00</v>
+      </c>
+      <c r="L158" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P158" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q158" t="str">
         <v>0</v>
@@ -4558,13 +4557,13 @@
         <v>KR</v>
       </c>
       <c r="G159" t="str">
-        <v>65.00</v>
-      </c>
-      <c r="L159" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P159" s="1">
-        <v>43828.91666666667</v>
+        <v>65,00</v>
+      </c>
+      <c r="L159" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P159" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q159" t="str">
         <v>0</v>
@@ -4584,13 +4583,13 @@
         <v>KR</v>
       </c>
       <c r="G160" t="str">
-        <v>65.00</v>
-      </c>
-      <c r="L160" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P160" s="1">
-        <v>43828.91666666667</v>
+        <v>65,00</v>
+      </c>
+      <c r="L160" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P160" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q160" t="str">
         <v>0</v>
@@ -4610,13 +4609,13 @@
         <v>KR</v>
       </c>
       <c r="G161" t="str">
-        <v>6733.00</v>
-      </c>
-      <c r="L161" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P161" s="1">
-        <v>43828.91666666667</v>
+        <v>6.733,00</v>
+      </c>
+      <c r="L161" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P161" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q161" t="str">
         <v>0</v>
@@ -4636,13 +4635,13 @@
         <v>KR</v>
       </c>
       <c r="G162" t="str">
-        <v>2000.00</v>
-      </c>
-      <c r="L162" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P162" s="1">
-        <v>43828.91666666667</v>
+        <v>2.000,00</v>
+      </c>
+      <c r="L162" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P162" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q162" t="str">
         <v>0</v>
@@ -4662,13 +4661,13 @@
         <v>KR</v>
       </c>
       <c r="G163" t="str">
-        <v>15.00</v>
-      </c>
-      <c r="L163" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P163" s="1">
-        <v>43828.91666666667</v>
+        <v>15,00</v>
+      </c>
+      <c r="L163" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P163" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q163" t="str">
         <v>0</v>
@@ -4688,13 +4687,13 @@
         <v>KR</v>
       </c>
       <c r="G164" t="str">
-        <v>348.00</v>
-      </c>
-      <c r="L164" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P164" s="1">
-        <v>43828.91666666667</v>
+        <v>348,00</v>
+      </c>
+      <c r="L164" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P164" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q164" t="str">
         <v>0</v>
@@ -4714,13 +4713,13 @@
         <v>KR</v>
       </c>
       <c r="G165" t="str">
-        <v>500.00</v>
-      </c>
-      <c r="L165" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P165" s="1">
-        <v>43828.91666666667</v>
+        <v>500,00</v>
+      </c>
+      <c r="L165" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P165" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q165" t="str">
         <v>0</v>
@@ -4740,13 +4739,13 @@
         <v>KR</v>
       </c>
       <c r="G166" t="str">
-        <v>-10000.00</v>
-      </c>
-      <c r="L166" s="1">
-        <v>43616.875</v>
-      </c>
-      <c r="P166" s="1">
-        <v>43828.91666666667</v>
+        <v>-10.000,00</v>
+      </c>
+      <c r="L166" t="str">
+        <v>01.06.2019</v>
+      </c>
+      <c r="P166" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q166" t="str">
         <v>0</v>
@@ -4766,13 +4765,13 @@
         <v>KR</v>
       </c>
       <c r="G167" t="str">
-        <v>-1830.00</v>
-      </c>
-      <c r="L167" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P167" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.830,00</v>
+      </c>
+      <c r="L167" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P167" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q167" t="str">
         <v>0</v>
@@ -4792,13 +4791,13 @@
         <v>KR</v>
       </c>
       <c r="G168" t="str">
-        <v>-7366.59</v>
-      </c>
-      <c r="L168" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P168" s="1">
-        <v>43828.91666666667</v>
+        <v>-7.366,59</v>
+      </c>
+      <c r="L168" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P168" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q168" t="str">
         <v>0</v>
@@ -4818,13 +4817,13 @@
         <v>KR</v>
       </c>
       <c r="G169" t="str">
-        <v>-2185.36</v>
-      </c>
-      <c r="L169" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P169" s="1">
-        <v>43828.91666666667</v>
+        <v>-2.185,36</v>
+      </c>
+      <c r="L169" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P169" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q169" t="str">
         <v>0</v>
@@ -4844,13 +4843,13 @@
         <v>KR</v>
       </c>
       <c r="G170" t="str">
-        <v>-10000.00</v>
-      </c>
-      <c r="L170" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P170" s="1">
-        <v>43828.91666666667</v>
+        <v>-10.000,00</v>
+      </c>
+      <c r="L170" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P170" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q170" t="str">
         <v>0</v>
@@ -4870,13 +4869,13 @@
         <v>KR</v>
       </c>
       <c r="G171" t="str">
-        <v>-756.00</v>
-      </c>
-      <c r="L171" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P171" s="1">
-        <v>43828.91666666667</v>
+        <v>-756,00</v>
+      </c>
+      <c r="L171" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P171" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q171" t="str">
         <v>0</v>
@@ -4896,13 +4895,13 @@
         <v>KR</v>
       </c>
       <c r="G172" t="str">
-        <v>-120.00</v>
-      </c>
-      <c r="L172" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P172" s="1">
-        <v>43828.91666666667</v>
+        <v>-120,00</v>
+      </c>
+      <c r="L172" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P172" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q172" t="str">
         <v>0</v>
@@ -4922,13 +4921,13 @@
         <v>KR</v>
       </c>
       <c r="G173" t="str">
-        <v>-200.00</v>
-      </c>
-      <c r="L173" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P173" s="1">
-        <v>43828.91666666667</v>
+        <v>-200,00</v>
+      </c>
+      <c r="L173" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P173" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q173" t="str">
         <v>0</v>
@@ -4948,13 +4947,13 @@
         <v>KR</v>
       </c>
       <c r="G174" t="str">
-        <v>-150.00</v>
-      </c>
-      <c r="L174" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P174" s="1">
-        <v>43828.91666666667</v>
+        <v>-150,00</v>
+      </c>
+      <c r="L174" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P174" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q174" t="str">
         <v>0</v>
@@ -4974,13 +4973,13 @@
         <v>KR</v>
       </c>
       <c r="G175" t="str">
-        <v>-6000.00</v>
-      </c>
-      <c r="L175" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P175" s="1">
-        <v>43828.91666666667</v>
+        <v>-6.000,00</v>
+      </c>
+      <c r="L175" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P175" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q175" t="str">
         <v>0</v>
@@ -5000,13 +4999,13 @@
         <v>KR</v>
       </c>
       <c r="G176" t="str">
-        <v>-10000.00</v>
-      </c>
-      <c r="L176" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P176" s="1">
-        <v>43828.91666666667</v>
+        <v>-10.000,00</v>
+      </c>
+      <c r="L176" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P176" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q176" t="str">
         <v>0</v>
@@ -5026,13 +5025,13 @@
         <v>KR</v>
       </c>
       <c r="G177" t="str">
-        <v>-20000.00</v>
-      </c>
-      <c r="L177" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P177" s="1">
-        <v>43828.91666666667</v>
+        <v>-20.000,00</v>
+      </c>
+      <c r="L177" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P177" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q177" t="str">
         <v>0</v>
@@ -5052,13 +5051,13 @@
         <v>KR</v>
       </c>
       <c r="G178" t="str">
-        <v>-24474.00</v>
-      </c>
-      <c r="L178" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P178" s="1">
-        <v>43828.91666666667</v>
+        <v>-24.474,00</v>
+      </c>
+      <c r="L178" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P178" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q178" t="str">
         <v>0</v>
@@ -5078,13 +5077,13 @@
         <v>KR</v>
       </c>
       <c r="G179" t="str">
-        <v>-42215.00</v>
-      </c>
-      <c r="L179" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P179" s="1">
-        <v>43828.91666666667</v>
+        <v>-42.215,00</v>
+      </c>
+      <c r="L179" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P179" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q179" t="str">
         <v>0</v>
@@ -5104,13 +5103,13 @@
         <v>KR</v>
       </c>
       <c r="G180" t="str">
-        <v>-5000.00</v>
-      </c>
-      <c r="L180" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P180" s="1">
-        <v>43828.91666666667</v>
+        <v>-5.000,00</v>
+      </c>
+      <c r="L180" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P180" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q180" t="str">
         <v>0</v>
@@ -5130,13 +5129,13 @@
         <v>KR</v>
       </c>
       <c r="G181" t="str">
-        <v>-5000.00</v>
-      </c>
-      <c r="L181" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P181" s="1">
-        <v>43828.91666666667</v>
+        <v>-5.000,00</v>
+      </c>
+      <c r="L181" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P181" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q181" t="str">
         <v>0</v>
@@ -5156,13 +5155,13 @@
         <v>KR</v>
       </c>
       <c r="G182" t="str">
-        <v>-35000.00</v>
-      </c>
-      <c r="L182" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P182" s="1">
-        <v>43828.91666666667</v>
+        <v>-35.000,00</v>
+      </c>
+      <c r="L182" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P182" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q182" t="str">
         <v>0</v>
@@ -5182,13 +5181,13 @@
         <v>KR</v>
       </c>
       <c r="G183" t="str">
-        <v>-35000.00</v>
-      </c>
-      <c r="L183" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P183" s="1">
-        <v>43828.91666666667</v>
+        <v>-35.000,00</v>
+      </c>
+      <c r="L183" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P183" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q183" t="str">
         <v>0</v>
@@ -5208,13 +5207,13 @@
         <v>KR</v>
       </c>
       <c r="G184" t="str">
-        <v>-65.00</v>
-      </c>
-      <c r="L184" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P184" s="1">
-        <v>43828.91666666667</v>
+        <v>-65,00</v>
+      </c>
+      <c r="L184" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P184" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q184" t="str">
         <v>0</v>
@@ -5234,13 +5233,13 @@
         <v>KR</v>
       </c>
       <c r="G185" t="str">
-        <v>-65.00</v>
-      </c>
-      <c r="L185" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P185" s="1">
-        <v>43828.91666666667</v>
+        <v>-65,00</v>
+      </c>
+      <c r="L185" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P185" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q185" t="str">
         <v>0</v>
@@ -5260,13 +5259,13 @@
         <v>KR</v>
       </c>
       <c r="G186" t="str">
-        <v>-215.00</v>
-      </c>
-      <c r="L186" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P186" s="1">
-        <v>43828.91666666667</v>
+        <v>-215,00</v>
+      </c>
+      <c r="L186" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P186" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q186" t="str">
         <v>0</v>
@@ -5286,13 +5285,13 @@
         <v>KR</v>
       </c>
       <c r="G187" t="str">
-        <v>-269.36</v>
-      </c>
-      <c r="L187" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P187" s="1">
-        <v>43828.91666666667</v>
+        <v>-269,36</v>
+      </c>
+      <c r="L187" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P187" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q187" t="str">
         <v>0</v>
@@ -5312,13 +5311,13 @@
         <v>KR</v>
       </c>
       <c r="G188" t="str">
-        <v>-14411.89</v>
-      </c>
-      <c r="L188" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P188" s="1">
-        <v>43828.91666666667</v>
+        <v>-14.411,89</v>
+      </c>
+      <c r="L188" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P188" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q188" t="str">
         <v>0</v>
@@ -5338,13 +5337,13 @@
         <v>KR</v>
       </c>
       <c r="G189" t="str">
-        <v>-10589.36</v>
-      </c>
-      <c r="L189" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P189" s="1">
-        <v>43828.91666666667</v>
+        <v>-10.589,36</v>
+      </c>
+      <c r="L189" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P189" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q189" t="str">
         <v>0</v>
@@ -5364,13 +5363,13 @@
         <v>KR</v>
       </c>
       <c r="G190" t="str">
-        <v>-220.00</v>
-      </c>
-      <c r="L190" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P190" s="1">
-        <v>43828.91666666667</v>
+        <v>-220,00</v>
+      </c>
+      <c r="L190" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P190" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q190" t="str">
         <v>0</v>
@@ -5390,13 +5389,13 @@
         <v>KR</v>
       </c>
       <c r="G191" t="str">
-        <v>-14025.37</v>
-      </c>
-      <c r="L191" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P191" s="1">
-        <v>43828.91666666667</v>
+        <v>-14.025,37</v>
+      </c>
+      <c r="L191" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P191" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q191" t="str">
         <v>0</v>
@@ -5416,13 +5415,13 @@
         <v>KR</v>
       </c>
       <c r="G192" t="str">
-        <v>-6200.00</v>
-      </c>
-      <c r="L192" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P192" s="1">
-        <v>43828.91666666667</v>
+        <v>-6.200,00</v>
+      </c>
+      <c r="L192" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P192" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q192" t="str">
         <v>0</v>
@@ -5442,13 +5441,13 @@
         <v>KR</v>
       </c>
       <c r="G193" t="str">
-        <v>-4000.00</v>
-      </c>
-      <c r="L193" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P193" s="1">
-        <v>43828.91666666667</v>
+        <v>-4.000,00</v>
+      </c>
+      <c r="L193" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P193" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q193" t="str">
         <v>0</v>
@@ -5468,13 +5467,13 @@
         <v>KR</v>
       </c>
       <c r="G194" t="str">
-        <v>-7300.00</v>
-      </c>
-      <c r="L194" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P194" s="1">
-        <v>43828.91666666667</v>
+        <v>-7.300,00</v>
+      </c>
+      <c r="L194" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P194" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q194" t="str">
         <v>0</v>
@@ -5494,13 +5493,13 @@
         <v>KR</v>
       </c>
       <c r="G195" t="str">
-        <v>-10000.00</v>
-      </c>
-      <c r="L195" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P195" s="1">
-        <v>43828.91666666667</v>
+        <v>-10.000,00</v>
+      </c>
+      <c r="L195" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P195" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q195" t="str">
         <v>0</v>
@@ -5520,13 +5519,13 @@
         <v>KR</v>
       </c>
       <c r="G196" t="str">
-        <v>-10000.00</v>
-      </c>
-      <c r="L196" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P196" s="1">
-        <v>43828.91666666667</v>
+        <v>-10.000,00</v>
+      </c>
+      <c r="L196" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P196" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q196" t="str">
         <v>0</v>
@@ -5546,13 +5545,13 @@
         <v>KR</v>
       </c>
       <c r="G197" t="str">
-        <v>220.00</v>
-      </c>
-      <c r="L197" s="1">
-        <v>43645.875</v>
-      </c>
-      <c r="P197" s="1">
-        <v>43828.91666666667</v>
+        <v>220,00</v>
+      </c>
+      <c r="L197" t="str">
+        <v>30.06.2019</v>
+      </c>
+      <c r="P197" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q197" t="str">
         <v>0</v>
@@ -5572,13 +5571,13 @@
         <v>KR</v>
       </c>
       <c r="G198" t="str">
-        <v>6200.00</v>
-      </c>
-      <c r="L198" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P198" s="1">
-        <v>43828.91666666667</v>
+        <v>6.200,00</v>
+      </c>
+      <c r="L198" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P198" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q198" t="str">
         <v>0</v>
@@ -5598,13 +5597,13 @@
         <v>KR</v>
       </c>
       <c r="G199" t="str">
-        <v>4000.00</v>
-      </c>
-      <c r="L199" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P199" s="1">
-        <v>43828.91666666667</v>
+        <v>4.000,00</v>
+      </c>
+      <c r="L199" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P199" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q199" t="str">
         <v>0</v>
@@ -5624,13 +5623,13 @@
         <v>KR</v>
       </c>
       <c r="G200" t="str">
-        <v>24474.00</v>
-      </c>
-      <c r="L200" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P200" s="1">
-        <v>43828.91666666667</v>
+        <v>24.474,00</v>
+      </c>
+      <c r="L200" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P200" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q200" t="str">
         <v>0</v>
@@ -5650,13 +5649,13 @@
         <v>KR</v>
       </c>
       <c r="G201" t="str">
-        <v>42215.00</v>
-      </c>
-      <c r="L201" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P201" s="1">
-        <v>43828.91666666667</v>
+        <v>42.215,00</v>
+      </c>
+      <c r="L201" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P201" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q201" t="str">
         <v>0</v>
@@ -5676,13 +5675,13 @@
         <v>KR</v>
       </c>
       <c r="G202" t="str">
-        <v>5000.00</v>
-      </c>
-      <c r="L202" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P202" s="1">
-        <v>43828.91666666667</v>
+        <v>5.000,00</v>
+      </c>
+      <c r="L202" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P202" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q202" t="str">
         <v>0</v>
@@ -5702,13 +5701,13 @@
         <v>KR</v>
       </c>
       <c r="G203" t="str">
-        <v>5000.00</v>
-      </c>
-      <c r="L203" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P203" s="1">
-        <v>43828.91666666667</v>
+        <v>5.000,00</v>
+      </c>
+      <c r="L203" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P203" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q203" t="str">
         <v>0</v>
@@ -5728,13 +5727,13 @@
         <v>KR</v>
       </c>
       <c r="G204" t="str">
-        <v>35000.00</v>
-      </c>
-      <c r="L204" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P204" s="1">
-        <v>43828.91666666667</v>
+        <v>35.000,00</v>
+      </c>
+      <c r="L204" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P204" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q204" t="str">
         <v>0</v>
@@ -5754,13 +5753,13 @@
         <v>KR</v>
       </c>
       <c r="G205" t="str">
-        <v>35000.00</v>
-      </c>
-      <c r="L205" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P205" s="1">
-        <v>43828.91666666667</v>
+        <v>35.000,00</v>
+      </c>
+      <c r="L205" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P205" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q205" t="str">
         <v>0</v>
@@ -5780,13 +5779,13 @@
         <v>KR</v>
       </c>
       <c r="G206" t="str">
-        <v>10000.00</v>
-      </c>
-      <c r="L206" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P206" s="1">
-        <v>43828.91666666667</v>
+        <v>10.000,00</v>
+      </c>
+      <c r="L206" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P206" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q206" t="str">
         <v>0</v>
@@ -5806,13 +5805,13 @@
         <v>KR</v>
       </c>
       <c r="G207" t="str">
-        <v>215.00</v>
-      </c>
-      <c r="L207" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P207" s="1">
-        <v>43828.91666666667</v>
+        <v>215,00</v>
+      </c>
+      <c r="L207" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P207" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q207" t="str">
         <v>0</v>
@@ -5832,13 +5831,13 @@
         <v>KR</v>
       </c>
       <c r="G208" t="str">
-        <v>269.36</v>
-      </c>
-      <c r="L208" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P208" s="1">
-        <v>43828.91666666667</v>
+        <v>269,36</v>
+      </c>
+      <c r="L208" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P208" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q208" t="str">
         <v>0</v>
@@ -5858,13 +5857,13 @@
         <v>KR</v>
       </c>
       <c r="G209" t="str">
-        <v>14411.89</v>
-      </c>
-      <c r="L209" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P209" s="1">
-        <v>43828.91666666667</v>
+        <v>14.411,89</v>
+      </c>
+      <c r="L209" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P209" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q209" t="str">
         <v>0</v>
@@ -5884,13 +5883,13 @@
         <v>KR</v>
       </c>
       <c r="G210" t="str">
-        <v>10589.36</v>
-      </c>
-      <c r="L210" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P210" s="1">
-        <v>43828.91666666667</v>
+        <v>10.589,36</v>
+      </c>
+      <c r="L210" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P210" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q210" t="str">
         <v>0</v>
@@ -5910,13 +5909,13 @@
         <v>KR</v>
       </c>
       <c r="G211" t="str">
-        <v>14025.37</v>
-      </c>
-      <c r="L211" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P211" s="1">
-        <v>43828.91666666667</v>
+        <v>14.025,37</v>
+      </c>
+      <c r="L211" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P211" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q211" t="str">
         <v>0</v>
@@ -5936,13 +5935,13 @@
         <v>KR</v>
       </c>
       <c r="G212" t="str">
-        <v>200.00</v>
-      </c>
-      <c r="L212" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P212" s="1">
-        <v>43828.91666666667</v>
+        <v>200,00</v>
+      </c>
+      <c r="L212" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P212" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q212" t="str">
         <v>0</v>
@@ -5962,13 +5961,13 @@
         <v>KR</v>
       </c>
       <c r="G213" t="str">
-        <v>7300.00</v>
-      </c>
-      <c r="L213" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P213" s="1">
-        <v>43828.91666666667</v>
+        <v>7.300,00</v>
+      </c>
+      <c r="L213" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P213" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q213" t="str">
         <v>0</v>
@@ -5988,13 +5987,13 @@
         <v>KR</v>
       </c>
       <c r="G214" t="str">
-        <v>2185.36</v>
-      </c>
-      <c r="L214" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P214" s="1">
-        <v>43828.91666666667</v>
+        <v>2.185,36</v>
+      </c>
+      <c r="L214" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P214" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q214" t="str">
         <v>0</v>
@@ -6014,13 +6013,13 @@
         <v>KR</v>
       </c>
       <c r="G215" t="str">
-        <v>7366.59</v>
-      </c>
-      <c r="L215" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P215" s="1">
-        <v>43828.91666666667</v>
+        <v>7.366,59</v>
+      </c>
+      <c r="L215" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P215" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q215" t="str">
         <v>0</v>
@@ -6040,13 +6039,13 @@
         <v>KR</v>
       </c>
       <c r="G216" t="str">
-        <v>1830.00</v>
-      </c>
-      <c r="L216" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P216" s="1">
-        <v>43828.91666666667</v>
+        <v>1.830,00</v>
+      </c>
+      <c r="L216" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P216" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q216" t="str">
         <v>0</v>
@@ -6066,13 +6065,13 @@
         <v>KR</v>
       </c>
       <c r="G217" t="str">
-        <v>65.00</v>
-      </c>
-      <c r="L217" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P217" s="1">
-        <v>43828.91666666667</v>
+        <v>65,00</v>
+      </c>
+      <c r="L217" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P217" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q217" t="str">
         <v>0</v>
@@ -6092,13 +6091,13 @@
         <v>KR</v>
       </c>
       <c r="G218" t="str">
-        <v>65.00</v>
-      </c>
-      <c r="L218" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P218" s="1">
-        <v>43828.91666666667</v>
+        <v>65,00</v>
+      </c>
+      <c r="L218" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P218" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q218" t="str">
         <v>0</v>
@@ -6118,13 +6117,13 @@
         <v>KR</v>
       </c>
       <c r="G219" t="str">
-        <v>150.00</v>
-      </c>
-      <c r="L219" s="1">
-        <v>43646.875</v>
-      </c>
-      <c r="P219" s="1">
-        <v>43828.91666666667</v>
+        <v>150,00</v>
+      </c>
+      <c r="L219" t="str">
+        <v>01.07.2019</v>
+      </c>
+      <c r="P219" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q219" t="str">
         <v>0</v>
@@ -6144,13 +6143,13 @@
         <v>KR</v>
       </c>
       <c r="G220" t="str">
-        <v>-4400.00</v>
-      </c>
-      <c r="L220" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P220" s="1">
-        <v>43828.91666666667</v>
+        <v>-4.400,00</v>
+      </c>
+      <c r="L220" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P220" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q220" t="str">
         <v>0</v>
@@ -6170,13 +6169,13 @@
         <v>KR</v>
       </c>
       <c r="G221" t="str">
-        <v>-20626.00</v>
-      </c>
-      <c r="L221" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P221" s="1">
-        <v>43828.91666666667</v>
+        <v>-20.626,00</v>
+      </c>
+      <c r="L221" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P221" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q221" t="str">
         <v>0</v>
@@ -6196,13 +6195,13 @@
         <v>KR</v>
       </c>
       <c r="G222" t="str">
-        <v>-3348.00</v>
-      </c>
-      <c r="L222" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P222" s="1">
-        <v>43828.91666666667</v>
+        <v>-3.348,00</v>
+      </c>
+      <c r="L222" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P222" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q222" t="str">
         <v>0</v>
@@ -6222,13 +6221,13 @@
         <v>KR</v>
       </c>
       <c r="G223" t="str">
-        <v>-37135.00</v>
-      </c>
-      <c r="L223" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P223" s="1">
-        <v>43828.91666666667</v>
+        <v>-37.135,00</v>
+      </c>
+      <c r="L223" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P223" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q223" t="str">
         <v>0</v>
@@ -6248,13 +6247,13 @@
         <v>KR</v>
       </c>
       <c r="G224" t="str">
-        <v>-16700.00</v>
-      </c>
-      <c r="L224" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P224" s="1">
-        <v>43828.91666666667</v>
+        <v>-16.700,00</v>
+      </c>
+      <c r="L224" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P224" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q224" t="str">
         <v>0</v>
@@ -6274,13 +6273,13 @@
         <v>KR</v>
       </c>
       <c r="G225" t="str">
-        <v>-16700.00</v>
-      </c>
-      <c r="L225" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P225" s="1">
-        <v>43828.91666666667</v>
+        <v>-16.700,00</v>
+      </c>
+      <c r="L225" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P225" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q225" t="str">
         <v>0</v>
@@ -6300,13 +6299,13 @@
         <v>KR</v>
       </c>
       <c r="G226" t="str">
-        <v>-1369.00</v>
-      </c>
-      <c r="L226" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P226" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.369,00</v>
+      </c>
+      <c r="L226" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P226" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q226" t="str">
         <v>0</v>
@@ -6326,13 +6325,13 @@
         <v>KR</v>
       </c>
       <c r="G227" t="str">
-        <v>-1390.00</v>
-      </c>
-      <c r="L227" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P227" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.390,00</v>
+      </c>
+      <c r="L227" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P227" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q227" t="str">
         <v>0</v>
@@ -6352,13 +6351,13 @@
         <v>KR</v>
       </c>
       <c r="G228" t="str">
-        <v>-683.00</v>
-      </c>
-      <c r="L228" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P228" s="1">
-        <v>43828.91666666667</v>
+        <v>-683,00</v>
+      </c>
+      <c r="L228" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P228" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q228" t="str">
         <v>0</v>
@@ -6378,13 +6377,13 @@
         <v>KR</v>
       </c>
       <c r="G229" t="str">
-        <v>-683.00</v>
-      </c>
-      <c r="L229" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P229" s="1">
-        <v>43828.91666666667</v>
+        <v>-683,00</v>
+      </c>
+      <c r="L229" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P229" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q229" t="str">
         <v>0</v>
@@ -6404,13 +6403,13 @@
         <v>KR</v>
       </c>
       <c r="G230" t="str">
-        <v>-9315.00</v>
-      </c>
-      <c r="L230" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P230" s="1">
-        <v>43828.91666666667</v>
+        <v>-9.315,00</v>
+      </c>
+      <c r="L230" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P230" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q230" t="str">
         <v>0</v>
@@ -6430,13 +6429,13 @@
         <v>KR</v>
       </c>
       <c r="G231" t="str">
-        <v>-1850.00</v>
-      </c>
-      <c r="L231" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P231" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.850,00</v>
+      </c>
+      <c r="L231" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P231" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q231" t="str">
         <v>0</v>
@@ -6456,13 +6455,13 @@
         <v>KR</v>
       </c>
       <c r="G232" t="str">
-        <v>-3400.00</v>
-      </c>
-      <c r="L232" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P232" s="1">
-        <v>43828.91666666667</v>
+        <v>-3.400,00</v>
+      </c>
+      <c r="L232" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P232" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q232" t="str">
         <v>0</v>
@@ -6482,13 +6481,13 @@
         <v>KR</v>
       </c>
       <c r="G233" t="str">
-        <v>-300.00</v>
-      </c>
-      <c r="L233" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P233" s="1">
-        <v>43828.91666666667</v>
+        <v>-300,00</v>
+      </c>
+      <c r="L233" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P233" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q233" t="str">
         <v>0</v>
@@ -6508,13 +6507,13 @@
         <v>KR</v>
       </c>
       <c r="G234" t="str">
-        <v>-8000.00</v>
-      </c>
-      <c r="L234" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P234" s="1">
-        <v>43828.91666666667</v>
+        <v>-8.000,00</v>
+      </c>
+      <c r="L234" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P234" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q234" t="str">
         <v>0</v>
@@ -6534,13 +6533,13 @@
         <v>KR</v>
       </c>
       <c r="G235" t="str">
-        <v>-105.00</v>
-      </c>
-      <c r="L235" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P235" s="1">
-        <v>43828.91666666667</v>
+        <v>-105,00</v>
+      </c>
+      <c r="L235" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P235" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q235" t="str">
         <v>0</v>
@@ -6560,13 +6559,13 @@
         <v>KR</v>
       </c>
       <c r="G236" t="str">
-        <v>-7145.00</v>
-      </c>
-      <c r="L236" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P236" s="1">
-        <v>43828.91666666667</v>
+        <v>-7.145,00</v>
+      </c>
+      <c r="L236" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P236" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q236" t="str">
         <v>0</v>
@@ -6586,13 +6585,13 @@
         <v>KR</v>
       </c>
       <c r="G237" t="str">
-        <v>-200.00</v>
-      </c>
-      <c r="L237" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P237" s="1">
-        <v>43828.91666666667</v>
+        <v>-200,00</v>
+      </c>
+      <c r="L237" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P237" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q237" t="str">
         <v>0</v>
@@ -6612,13 +6611,13 @@
         <v>KR</v>
       </c>
       <c r="G238" t="str">
-        <v>-1500.00</v>
-      </c>
-      <c r="L238" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P238" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.500,00</v>
+      </c>
+      <c r="L238" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P238" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q238" t="str">
         <v>0</v>
@@ -6638,13 +6637,13 @@
         <v>KR</v>
       </c>
       <c r="G239" t="str">
-        <v>-215.00</v>
-      </c>
-      <c r="L239" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P239" s="1">
-        <v>43828.91666666667</v>
+        <v>-215,00</v>
+      </c>
+      <c r="L239" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P239" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q239" t="str">
         <v>0</v>
@@ -6664,13 +6663,13 @@
         <v>KR</v>
       </c>
       <c r="G240" t="str">
-        <v>-82.35</v>
-      </c>
-      <c r="L240" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P240" s="1">
-        <v>43828.91666666667</v>
+        <v>-82,35</v>
+      </c>
+      <c r="L240" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P240" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q240" t="str">
         <v>0</v>
@@ -6690,13 +6689,13 @@
         <v>KR</v>
       </c>
       <c r="G241" t="str">
-        <v>-82.35</v>
-      </c>
-      <c r="L241" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P241" s="1">
-        <v>43828.91666666667</v>
+        <v>-82,35</v>
+      </c>
+      <c r="L241" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P241" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q241" t="str">
         <v>0</v>
@@ -6716,13 +6715,13 @@
         <v>KR</v>
       </c>
       <c r="G242" t="str">
-        <v>-26114.00</v>
-      </c>
-      <c r="L242" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P242" s="1">
-        <v>43828.91666666667</v>
+        <v>-26.114,00</v>
+      </c>
+      <c r="L242" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P242" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q242" t="str">
         <v>0</v>
@@ -6739,13 +6738,13 @@
         <v>K</v>
       </c>
       <c r="G243" t="str">
-        <v>-81017.08</v>
-      </c>
-      <c r="L243" s="1">
-        <v>43676.875</v>
-      </c>
-      <c r="P243" s="1">
-        <v>43828.91666666667</v>
+        <v>-81.017,08</v>
+      </c>
+      <c r="L243" t="str">
+        <v>31.07.2019</v>
+      </c>
+      <c r="P243" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q243" t="str">
         <v>0</v>
@@ -6762,13 +6761,13 @@
         <v>K</v>
       </c>
       <c r="G244" t="str">
-        <v>300.00</v>
-      </c>
-      <c r="L244" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P244" s="1">
-        <v>43828.91666666667</v>
+        <v>300,00</v>
+      </c>
+      <c r="L244" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P244" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q244" t="str">
         <v>0</v>
@@ -6785,13 +6784,13 @@
         <v>K</v>
       </c>
       <c r="G245" t="str">
-        <v>3400.00</v>
-      </c>
-      <c r="L245" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P245" s="1">
-        <v>43828.91666666667</v>
+        <v>3.400,00</v>
+      </c>
+      <c r="L245" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P245" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q245" t="str">
         <v>0</v>
@@ -6808,13 +6807,13 @@
         <v>K</v>
       </c>
       <c r="G246" t="str">
-        <v>1850.00</v>
-      </c>
-      <c r="L246" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P246" s="1">
-        <v>43828.91666666667</v>
+        <v>1.850,00</v>
+      </c>
+      <c r="L246" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P246" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q246" t="str">
         <v>0</v>
@@ -6831,13 +6830,13 @@
         <v>K</v>
       </c>
       <c r="G247" t="str">
-        <v>9315.00</v>
-      </c>
-      <c r="L247" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P247" s="1">
-        <v>43828.91666666667</v>
+        <v>9.315,00</v>
+      </c>
+      <c r="L247" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P247" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q247" t="str">
         <v>0</v>
@@ -6854,13 +6853,13 @@
         <v>K</v>
       </c>
       <c r="G248" t="str">
-        <v>683.00</v>
-      </c>
-      <c r="L248" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P248" s="1">
-        <v>43828.91666666667</v>
+        <v>683,00</v>
+      </c>
+      <c r="L248" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P248" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q248" t="str">
         <v>0</v>
@@ -6877,13 +6876,13 @@
         <v>K</v>
       </c>
       <c r="G249" t="str">
-        <v>683.00</v>
-      </c>
-      <c r="L249" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P249" s="1">
-        <v>43828.91666666667</v>
+        <v>683,00</v>
+      </c>
+      <c r="L249" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P249" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q249" t="str">
         <v>0</v>
@@ -6900,13 +6899,13 @@
         <v>K</v>
       </c>
       <c r="G250" t="str">
-        <v>1390.00</v>
-      </c>
-      <c r="L250" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P250" s="1">
-        <v>43828.91666666667</v>
+        <v>1.390,00</v>
+      </c>
+      <c r="L250" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P250" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q250" t="str">
         <v>0</v>
@@ -6923,13 +6922,13 @@
         <v>K</v>
       </c>
       <c r="G251" t="str">
-        <v>1369.00</v>
-      </c>
-      <c r="L251" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P251" s="1">
-        <v>43828.91666666667</v>
+        <v>1.369,00</v>
+      </c>
+      <c r="L251" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P251" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q251" t="str">
         <v>0</v>
@@ -6946,13 +6945,13 @@
         <v>K</v>
       </c>
       <c r="G252" t="str">
-        <v>37135.00</v>
-      </c>
-      <c r="L252" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P252" s="1">
-        <v>43828.91666666667</v>
+        <v>37.135,00</v>
+      </c>
+      <c r="L252" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P252" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q252" t="str">
         <v>0</v>
@@ -6969,13 +6968,13 @@
         <v>K</v>
       </c>
       <c r="G253" t="str">
-        <v>3348.00</v>
-      </c>
-      <c r="L253" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P253" s="1">
-        <v>43828.91666666667</v>
+        <v>3.348,00</v>
+      </c>
+      <c r="L253" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P253" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q253" t="str">
         <v>0</v>
@@ -6992,13 +6991,13 @@
         <v>K</v>
       </c>
       <c r="G254" t="str">
-        <v>20626.00</v>
-      </c>
-      <c r="L254" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P254" s="1">
-        <v>43828.91666666667</v>
+        <v>20.626,00</v>
+      </c>
+      <c r="L254" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P254" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q254" t="str">
         <v>0</v>
@@ -7015,13 +7014,13 @@
         <v>K</v>
       </c>
       <c r="G255" t="str">
-        <v>26114.00</v>
-      </c>
-      <c r="L255" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P255" s="1">
-        <v>43828.91666666667</v>
+        <v>26.114,00</v>
+      </c>
+      <c r="L255" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P255" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q255" t="str">
         <v>0</v>
@@ -7038,13 +7037,13 @@
         <v>K</v>
       </c>
       <c r="G256" t="str">
-        <v>82.35</v>
-      </c>
-      <c r="L256" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P256" s="1">
-        <v>43828.91666666667</v>
+        <v>82,35</v>
+      </c>
+      <c r="L256" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P256" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q256" t="str">
         <v>0</v>
@@ -7061,13 +7060,13 @@
         <v>K</v>
       </c>
       <c r="G257" t="str">
-        <v>82.35</v>
-      </c>
-      <c r="L257" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P257" s="1">
-        <v>43828.91666666667</v>
+        <v>82,35</v>
+      </c>
+      <c r="L257" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P257" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q257" t="str">
         <v>0</v>
@@ -7084,13 +7083,13 @@
         <v>K</v>
       </c>
       <c r="G258" t="str">
-        <v>215.00</v>
-      </c>
-      <c r="L258" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P258" s="1">
-        <v>43828.91666666667</v>
+        <v>215,00</v>
+      </c>
+      <c r="L258" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P258" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q258" t="str">
         <v>0</v>
@@ -7107,13 +7106,13 @@
         <v>K</v>
       </c>
       <c r="G259" t="str">
-        <v>1500.00</v>
-      </c>
-      <c r="L259" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P259" s="1">
-        <v>43828.91666666667</v>
+        <v>1.500,00</v>
+      </c>
+      <c r="L259" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P259" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q259" t="str">
         <v>0</v>
@@ -7130,13 +7129,13 @@
         <v>K</v>
       </c>
       <c r="G260" t="str">
-        <v>4400.00</v>
-      </c>
-      <c r="L260" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P260" s="1">
-        <v>43828.91666666667</v>
+        <v>4.400,00</v>
+      </c>
+      <c r="L260" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P260" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q260" t="str">
         <v>0</v>
@@ -7153,13 +7152,13 @@
         <v>K</v>
       </c>
       <c r="G261" t="str">
-        <v>10000.00</v>
-      </c>
-      <c r="L261" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P261" s="1">
-        <v>43828.91666666667</v>
+        <v>10.000,00</v>
+      </c>
+      <c r="L261" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P261" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q261" t="str">
         <v>0</v>
@@ -7176,13 +7175,13 @@
         <v>K</v>
       </c>
       <c r="G262" t="str">
-        <v>10000.00</v>
-      </c>
-      <c r="L262" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P262" s="1">
-        <v>43828.91666666667</v>
+        <v>10.000,00</v>
+      </c>
+      <c r="L262" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P262" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q262" t="str">
         <v>0</v>
@@ -7199,13 +7198,13 @@
         <v>K</v>
       </c>
       <c r="G263" t="str">
-        <v>120.00</v>
-      </c>
-      <c r="L263" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P263" s="1">
-        <v>43828.91666666667</v>
+        <v>120,00</v>
+      </c>
+      <c r="L263" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P263" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q263" t="str">
         <v>0</v>
@@ -7222,13 +7221,13 @@
         <v>K</v>
       </c>
       <c r="G264" t="str">
-        <v>756.00</v>
-      </c>
-      <c r="L264" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P264" s="1">
-        <v>43828.91666666667</v>
+        <v>756,00</v>
+      </c>
+      <c r="L264" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P264" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q264" t="str">
         <v>0</v>
@@ -7245,13 +7244,13 @@
         <v>K</v>
       </c>
       <c r="G265" t="str">
-        <v>6000.00</v>
-      </c>
-      <c r="L265" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P265" s="1">
-        <v>43828.91666666667</v>
+        <v>6.000,00</v>
+      </c>
+      <c r="L265" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P265" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q265" t="str">
         <v>0</v>
@@ -7268,13 +7267,13 @@
         <v>K</v>
       </c>
       <c r="G266" t="str">
-        <v>81017.08</v>
-      </c>
-      <c r="L266" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P266" s="1">
-        <v>43828.91666666667</v>
+        <v>81.017,08</v>
+      </c>
+      <c r="L266" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P266" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q266" t="str">
         <v>0</v>
@@ -7291,13 +7290,13 @@
         <v>K</v>
       </c>
       <c r="G267" t="str">
-        <v>7145.00</v>
-      </c>
-      <c r="L267" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P267" s="1">
-        <v>43828.91666666667</v>
+        <v>7.145,00</v>
+      </c>
+      <c r="L267" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P267" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q267" t="str">
         <v>0</v>
@@ -7314,13 +7313,13 @@
         <v>K</v>
       </c>
       <c r="G268" t="str">
-        <v>8000.00</v>
-      </c>
-      <c r="L268" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P268" s="1">
-        <v>43828.91666666667</v>
+        <v>8.000,00</v>
+      </c>
+      <c r="L268" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P268" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q268" t="str">
         <v>0</v>
@@ -7337,13 +7336,13 @@
         <v>K</v>
       </c>
       <c r="G269" t="str">
-        <v>200.00</v>
-      </c>
-      <c r="L269" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P269" s="1">
-        <v>43828.91666666667</v>
+        <v>200,00</v>
+      </c>
+      <c r="L269" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P269" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q269" t="str">
         <v>0</v>
@@ -7360,13 +7359,13 @@
         <v>K</v>
       </c>
       <c r="G270" t="str">
-        <v>105.00</v>
-      </c>
-      <c r="L270" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P270" s="1">
-        <v>43828.91666666667</v>
+        <v>105,00</v>
+      </c>
+      <c r="L270" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P270" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q270" t="str">
         <v>0</v>
@@ -7383,13 +7382,13 @@
         <v>K</v>
       </c>
       <c r="G271" t="str">
-        <v>16700.00</v>
-      </c>
-      <c r="L271" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P271" s="1">
-        <v>43828.91666666667</v>
+        <v>16.700,00</v>
+      </c>
+      <c r="L271" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P271" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q271" t="str">
         <v>0</v>
@@ -7406,13 +7405,13 @@
         <v>K</v>
       </c>
       <c r="G272" t="str">
-        <v>16700.00</v>
-      </c>
-      <c r="L272" s="1">
-        <v>43677.875</v>
-      </c>
-      <c r="P272" s="1">
-        <v>43828.91666666667</v>
+        <v>16.700,00</v>
+      </c>
+      <c r="L272" t="str">
+        <v>01.08.2019</v>
+      </c>
+      <c r="P272" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q272" t="str">
         <v>0</v>
@@ -7429,13 +7428,13 @@
         <v>K</v>
       </c>
       <c r="G273" t="str">
-        <v>-3000.00</v>
-      </c>
-      <c r="L273" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P273" s="1">
-        <v>43828.91666666667</v>
+        <v>-3.000,00</v>
+      </c>
+      <c r="L273" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P273" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q273" t="str">
         <v>0</v>
@@ -7452,13 +7451,13 @@
         <v>K</v>
       </c>
       <c r="G274" t="str">
-        <v>-10900.00</v>
-      </c>
-      <c r="L274" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P274" s="1">
-        <v>43828.91666666667</v>
+        <v>-10.900,00</v>
+      </c>
+      <c r="L274" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P274" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q274" t="str">
         <v>0</v>
@@ -7475,13 +7474,13 @@
         <v>K</v>
       </c>
       <c r="G275" t="str">
-        <v>-3344.00</v>
-      </c>
-      <c r="L275" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P275" s="1">
-        <v>43828.91666666667</v>
+        <v>-3.344,00</v>
+      </c>
+      <c r="L275" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P275" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q275" t="str">
         <v>0</v>
@@ -7498,13 +7497,13 @@
         <v>K</v>
       </c>
       <c r="G276" t="str">
-        <v>-1100.00</v>
-      </c>
-      <c r="L276" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P276" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.100,00</v>
+      </c>
+      <c r="L276" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P276" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q276" t="str">
         <v>0</v>
@@ -7521,13 +7520,13 @@
         <v>K</v>
       </c>
       <c r="G277" t="str">
-        <v>-4400.00</v>
-      </c>
-      <c r="L277" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P277" s="1">
-        <v>43828.91666666667</v>
+        <v>-4.400,00</v>
+      </c>
+      <c r="L277" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P277" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q277" t="str">
         <v>0</v>
@@ -7544,13 +7543,13 @@
         <v>K</v>
       </c>
       <c r="G278" t="str">
-        <v>-1300.00</v>
-      </c>
-      <c r="L278" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P278" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.300,00</v>
+      </c>
+      <c r="L278" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P278" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q278" t="str">
         <v>0</v>
@@ -7567,13 +7566,13 @@
         <v>K</v>
       </c>
       <c r="G279" t="str">
-        <v>-3200.00</v>
-      </c>
-      <c r="L279" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P279" s="1">
-        <v>43828.91666666667</v>
+        <v>-3.200,00</v>
+      </c>
+      <c r="L279" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P279" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q279" t="str">
         <v>0</v>
@@ -7590,13 +7589,13 @@
         <v>K</v>
       </c>
       <c r="G280" t="str">
-        <v>-1400.00</v>
-      </c>
-      <c r="L280" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P280" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.400,00</v>
+      </c>
+      <c r="L280" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P280" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q280" t="str">
         <v>0</v>
@@ -7613,13 +7612,13 @@
         <v>K</v>
       </c>
       <c r="G281" t="str">
-        <v>-8500.00</v>
-      </c>
-      <c r="L281" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P281" s="1">
-        <v>43828.91666666667</v>
+        <v>-8.500,00</v>
+      </c>
+      <c r="L281" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P281" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q281" t="str">
         <v>0</v>
@@ -7636,13 +7635,13 @@
         <v>K</v>
       </c>
       <c r="G282" t="str">
-        <v>-3403.00</v>
-      </c>
-      <c r="L282" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P282" s="1">
-        <v>43828.91666666667</v>
+        <v>-3.403,00</v>
+      </c>
+      <c r="L282" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P282" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q282" t="str">
         <v>0</v>
@@ -7659,13 +7658,13 @@
         <v>K</v>
       </c>
       <c r="G283" t="str">
-        <v>-3003.00</v>
-      </c>
-      <c r="L283" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P283" s="1">
-        <v>43828.91666666667</v>
+        <v>-3.003,00</v>
+      </c>
+      <c r="L283" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P283" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q283" t="str">
         <v>0</v>
@@ -7682,13 +7681,13 @@
         <v>K</v>
       </c>
       <c r="G284" t="str">
-        <v>-31362.00</v>
-      </c>
-      <c r="L284" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P284" s="1">
-        <v>43828.91666666667</v>
+        <v>-31.362,00</v>
+      </c>
+      <c r="L284" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P284" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q284" t="str">
         <v>0</v>
@@ -7705,13 +7704,13 @@
         <v>K</v>
       </c>
       <c r="G285" t="str">
-        <v>-215.00</v>
-      </c>
-      <c r="L285" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P285" s="1">
-        <v>43828.91666666667</v>
+        <v>-215,00</v>
+      </c>
+      <c r="L285" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P285" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q285" t="str">
         <v>0</v>
@@ -7728,13 +7727,13 @@
         <v>K</v>
       </c>
       <c r="G286" t="str">
-        <v>-83.35</v>
-      </c>
-      <c r="L286" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P286" s="1">
-        <v>43828.91666666667</v>
+        <v>-83,35</v>
+      </c>
+      <c r="L286" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P286" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q286" t="str">
         <v>0</v>
@@ -7751,13 +7750,13 @@
         <v>K</v>
       </c>
       <c r="G287" t="str">
-        <v>-83.35</v>
-      </c>
-      <c r="L287" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P287" s="1">
-        <v>43828.91666666667</v>
+        <v>-83,35</v>
+      </c>
+      <c r="L287" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P287" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q287" t="str">
         <v>0</v>
@@ -7774,13 +7773,13 @@
         <v>K</v>
       </c>
       <c r="G288" t="str">
-        <v>-16500.00</v>
-      </c>
-      <c r="L288" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P288" s="1">
-        <v>43828.91666666667</v>
+        <v>-16.500,00</v>
+      </c>
+      <c r="L288" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P288" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q288" t="str">
         <v>0</v>
@@ -7797,13 +7796,13 @@
         <v>K</v>
       </c>
       <c r="G289" t="str">
-        <v>-4434.74</v>
-      </c>
-      <c r="L289" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P289" s="1">
-        <v>43828.91666666667</v>
+        <v>-4.434,74</v>
+      </c>
+      <c r="L289" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P289" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q289" t="str">
         <v>0</v>
@@ -7820,13 +7819,13 @@
         <v>K</v>
       </c>
       <c r="G290" t="str">
-        <v>-594.67</v>
-      </c>
-      <c r="L290" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P290" s="1">
-        <v>43828.91666666667</v>
+        <v>-594,67</v>
+      </c>
+      <c r="L290" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P290" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q290" t="str">
         <v>0</v>
@@ -7843,13 +7842,13 @@
         <v>K</v>
       </c>
       <c r="G291" t="str">
-        <v>-421.87</v>
-      </c>
-      <c r="L291" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P291" s="1">
-        <v>43828.91666666667</v>
+        <v>-421,87</v>
+      </c>
+      <c r="L291" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P291" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q291" t="str">
         <v>0</v>
@@ -7866,13 +7865,13 @@
         <v>K</v>
       </c>
       <c r="G292" t="str">
-        <v>-1676.58</v>
-      </c>
-      <c r="L292" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P292" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.676,58</v>
+      </c>
+      <c r="L292" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P292" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q292" t="str">
         <v>0</v>
@@ -7889,13 +7888,13 @@
         <v>K</v>
       </c>
       <c r="G293" t="str">
-        <v>-769.77</v>
-      </c>
-      <c r="L293" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P293" s="1">
-        <v>43828.91666666667</v>
+        <v>-769,77</v>
+      </c>
+      <c r="L293" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P293" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q293" t="str">
         <v>0</v>
@@ -7912,13 +7911,13 @@
         <v>K</v>
       </c>
       <c r="G294" t="str">
-        <v>-3200.00</v>
-      </c>
-      <c r="L294" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P294" s="1">
-        <v>43828.91666666667</v>
+        <v>-3.200,00</v>
+      </c>
+      <c r="L294" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P294" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q294" t="str">
         <v>0</v>
@@ -7935,13 +7934,13 @@
         <v>K</v>
       </c>
       <c r="G295" t="str">
-        <v>-3000.00</v>
-      </c>
-      <c r="L295" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P295" s="1">
-        <v>43828.91666666667</v>
+        <v>-3.000,00</v>
+      </c>
+      <c r="L295" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P295" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q295" t="str">
         <v>0</v>
@@ -7958,13 +7957,13 @@
         <v>K</v>
       </c>
       <c r="G296" t="str">
-        <v>-3374.34</v>
-      </c>
-      <c r="L296" s="1">
-        <v>43707.875</v>
-      </c>
-      <c r="P296" s="1">
-        <v>43828.91666666667</v>
+        <v>-3.374,34</v>
+      </c>
+      <c r="L296" t="str">
+        <v>31.08.2019</v>
+      </c>
+      <c r="P296" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q296" t="str">
         <v>0</v>
@@ -7981,13 +7980,13 @@
         <v>K</v>
       </c>
       <c r="G297" t="str">
-        <v>3374.34</v>
-      </c>
-      <c r="L297" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P297" s="1">
-        <v>43828.91666666667</v>
+        <v>3.374,34</v>
+      </c>
+      <c r="L297" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P297" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q297" t="str">
         <v>0</v>
@@ -8004,13 +8003,13 @@
         <v>K</v>
       </c>
       <c r="G298" t="str">
-        <v>3000.00</v>
-      </c>
-      <c r="L298" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P298" s="1">
-        <v>43828.91666666667</v>
+        <v>3.000,00</v>
+      </c>
+      <c r="L298" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P298" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q298" t="str">
         <v>0</v>
@@ -8027,13 +8026,13 @@
         <v>K</v>
       </c>
       <c r="G299" t="str">
-        <v>10900.00</v>
-      </c>
-      <c r="L299" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P299" s="1">
-        <v>43828.91666666667</v>
+        <v>10.900,00</v>
+      </c>
+      <c r="L299" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P299" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q299" t="str">
         <v>0</v>
@@ -8050,13 +8049,13 @@
         <v>K</v>
       </c>
       <c r="G300" t="str">
-        <v>3344.00</v>
-      </c>
-      <c r="L300" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P300" s="1">
-        <v>43828.91666666667</v>
+        <v>3.344,00</v>
+      </c>
+      <c r="L300" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P300" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q300" t="str">
         <v>0</v>
@@ -8073,13 +8072,13 @@
         <v>K</v>
       </c>
       <c r="G301" t="str">
-        <v>1100.00</v>
-      </c>
-      <c r="L301" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P301" s="1">
-        <v>43828.91666666667</v>
+        <v>1.100,00</v>
+      </c>
+      <c r="L301" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P301" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q301" t="str">
         <v>0</v>
@@ -8096,13 +8095,13 @@
         <v>K</v>
       </c>
       <c r="G302" t="str">
-        <v>4400.00</v>
-      </c>
-      <c r="L302" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P302" s="1">
-        <v>43828.91666666667</v>
+        <v>4.400,00</v>
+      </c>
+      <c r="L302" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P302" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q302" t="str">
         <v>0</v>
@@ -8119,13 +8118,13 @@
         <v>K</v>
       </c>
       <c r="G303" t="str">
-        <v>1300.00</v>
-      </c>
-      <c r="L303" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P303" s="1">
-        <v>43828.91666666667</v>
+        <v>1.300,00</v>
+      </c>
+      <c r="L303" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P303" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q303" t="str">
         <v>0</v>
@@ -8142,13 +8141,13 @@
         <v>K</v>
       </c>
       <c r="G304" t="str">
-        <v>3200.00</v>
-      </c>
-      <c r="L304" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P304" s="1">
-        <v>43828.91666666667</v>
+        <v>3.200,00</v>
+      </c>
+      <c r="L304" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P304" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q304" t="str">
         <v>0</v>
@@ -8165,13 +8164,13 @@
         <v>K</v>
       </c>
       <c r="G305" t="str">
-        <v>1400.00</v>
-      </c>
-      <c r="L305" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P305" s="1">
-        <v>43828.91666666667</v>
+        <v>1.400,00</v>
+      </c>
+      <c r="L305" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P305" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q305" t="str">
         <v>0</v>
@@ -8188,13 +8187,13 @@
         <v>K</v>
       </c>
       <c r="G306" t="str">
-        <v>8500.00</v>
-      </c>
-      <c r="L306" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P306" s="1">
-        <v>43828.91666666667</v>
+        <v>8.500,00</v>
+      </c>
+      <c r="L306" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P306" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q306" t="str">
         <v>0</v>
@@ -8211,13 +8210,13 @@
         <v>K</v>
       </c>
       <c r="G307" t="str">
-        <v>3403.00</v>
-      </c>
-      <c r="L307" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P307" s="1">
-        <v>43828.91666666667</v>
+        <v>3.403,00</v>
+      </c>
+      <c r="L307" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P307" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q307" t="str">
         <v>0</v>
@@ -8234,13 +8233,13 @@
         <v>K</v>
       </c>
       <c r="G308" t="str">
-        <v>3003.00</v>
-      </c>
-      <c r="L308" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P308" s="1">
-        <v>43828.91666666667</v>
+        <v>3.003,00</v>
+      </c>
+      <c r="L308" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P308" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q308" t="str">
         <v>0</v>
@@ -8257,13 +8256,13 @@
         <v>K</v>
       </c>
       <c r="G309" t="str">
-        <v>31362.00</v>
-      </c>
-      <c r="L309" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P309" s="1">
-        <v>43828.91666666667</v>
+        <v>31.362,00</v>
+      </c>
+      <c r="L309" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P309" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q309" t="str">
         <v>0</v>
@@ -8280,13 +8279,13 @@
         <v>K</v>
       </c>
       <c r="G310" t="str">
-        <v>215.00</v>
-      </c>
-      <c r="L310" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P310" s="1">
-        <v>43828.91666666667</v>
+        <v>215,00</v>
+      </c>
+      <c r="L310" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P310" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q310" t="str">
         <v>0</v>
@@ -8303,13 +8302,13 @@
         <v>K</v>
       </c>
       <c r="G311" t="str">
-        <v>83.35</v>
-      </c>
-      <c r="L311" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P311" s="1">
-        <v>43828.91666666667</v>
+        <v>83,35</v>
+      </c>
+      <c r="L311" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P311" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q311" t="str">
         <v>0</v>
@@ -8326,13 +8325,13 @@
         <v>K</v>
       </c>
       <c r="G312" t="str">
-        <v>83.35</v>
-      </c>
-      <c r="L312" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P312" s="1">
-        <v>43828.91666666667</v>
+        <v>83,35</v>
+      </c>
+      <c r="L312" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P312" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q312" t="str">
         <v>0</v>
@@ -8349,13 +8348,13 @@
         <v>K</v>
       </c>
       <c r="G313" t="str">
-        <v>16500.00</v>
-      </c>
-      <c r="L313" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P313" s="1">
-        <v>43828.91666666667</v>
+        <v>16.500,00</v>
+      </c>
+      <c r="L313" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P313" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q313" t="str">
         <v>0</v>
@@ -8372,13 +8371,13 @@
         <v>K</v>
       </c>
       <c r="G314" t="str">
-        <v>4434.74</v>
-      </c>
-      <c r="L314" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P314" s="1">
-        <v>43828.91666666667</v>
+        <v>4.434,74</v>
+      </c>
+      <c r="L314" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P314" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q314" t="str">
         <v>0</v>
@@ -8395,13 +8394,13 @@
         <v>K</v>
       </c>
       <c r="G315" t="str">
-        <v>594.67</v>
-      </c>
-      <c r="L315" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P315" s="1">
-        <v>43828.91666666667</v>
+        <v>594,67</v>
+      </c>
+      <c r="L315" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P315" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q315" t="str">
         <v>0</v>
@@ -8418,13 +8417,13 @@
         <v>K</v>
       </c>
       <c r="G316" t="str">
-        <v>421.87</v>
-      </c>
-      <c r="L316" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P316" s="1">
-        <v>43828.91666666667</v>
+        <v>421,87</v>
+      </c>
+      <c r="L316" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P316" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q316" t="str">
         <v>0</v>
@@ -8441,13 +8440,13 @@
         <v>K</v>
       </c>
       <c r="G317" t="str">
-        <v>1676.58</v>
-      </c>
-      <c r="L317" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P317" s="1">
-        <v>43828.91666666667</v>
+        <v>1.676,58</v>
+      </c>
+      <c r="L317" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P317" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q317" t="str">
         <v>0</v>
@@ -8464,13 +8463,13 @@
         <v>K</v>
       </c>
       <c r="G318" t="str">
-        <v>769.77</v>
-      </c>
-      <c r="L318" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P318" s="1">
-        <v>43828.91666666667</v>
+        <v>769,77</v>
+      </c>
+      <c r="L318" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P318" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q318" t="str">
         <v>0</v>
@@ -8487,13 +8486,13 @@
         <v>K</v>
       </c>
       <c r="G319" t="str">
-        <v>3200.00</v>
-      </c>
-      <c r="L319" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P319" s="1">
-        <v>43828.91666666667</v>
+        <v>3.200,00</v>
+      </c>
+      <c r="L319" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P319" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q319" t="str">
         <v>0</v>
@@ -8510,13 +8509,13 @@
         <v>K</v>
       </c>
       <c r="G320" t="str">
-        <v>3000.00</v>
-      </c>
-      <c r="L320" s="1">
-        <v>43708.875</v>
-      </c>
-      <c r="P320" s="1">
-        <v>43828.91666666667</v>
+        <v>3.000,00</v>
+      </c>
+      <c r="L320" t="str">
+        <v>01.09.2019</v>
+      </c>
+      <c r="P320" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q320" t="str">
         <v>0</v>
@@ -8533,13 +8532,13 @@
         <v>K</v>
       </c>
       <c r="G321" t="str">
-        <v>-6300.00</v>
-      </c>
-      <c r="L321" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P321" s="1">
-        <v>43828.91666666667</v>
+        <v>-6.300,00</v>
+      </c>
+      <c r="L321" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P321" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q321" t="str">
         <v>0</v>
@@ -8556,13 +8555,13 @@
         <v>K</v>
       </c>
       <c r="G322" t="str">
-        <v>-3344.00</v>
-      </c>
-      <c r="L322" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P322" s="1">
-        <v>43828.91666666667</v>
+        <v>-3.344,00</v>
+      </c>
+      <c r="L322" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P322" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q322" t="str">
         <v>0</v>
@@ -8579,13 +8578,13 @@
         <v>K</v>
       </c>
       <c r="G323" t="str">
-        <v>-4200.00</v>
-      </c>
-      <c r="L323" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P323" s="1">
-        <v>43828.91666666667</v>
+        <v>-4.200,00</v>
+      </c>
+      <c r="L323" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P323" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q323" t="str">
         <v>0</v>
@@ -8602,13 +8601,13 @@
         <v>K</v>
       </c>
       <c r="G324" t="str">
-        <v>-3000.00</v>
-      </c>
-      <c r="L324" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P324" s="1">
-        <v>43828.91666666667</v>
+        <v>-3.000,00</v>
+      </c>
+      <c r="L324" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P324" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q324" t="str">
         <v>0</v>
@@ -8625,13 +8624,13 @@
         <v>K</v>
       </c>
       <c r="G325" t="str">
-        <v>-22400.00</v>
-      </c>
-      <c r="L325" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P325" s="1">
-        <v>43828.91666666667</v>
+        <v>-22.400,00</v>
+      </c>
+      <c r="L325" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P325" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q325" t="str">
         <v>0</v>
@@ -8648,13 +8647,13 @@
         <v>K</v>
       </c>
       <c r="G326" t="str">
-        <v>-120710.00</v>
-      </c>
-      <c r="L326" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P326" s="1">
-        <v>43828.91666666667</v>
+        <v>-120.710,00</v>
+      </c>
+      <c r="L326" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P326" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q326" t="str">
         <v>0</v>
@@ -8671,13 +8670,13 @@
         <v>K</v>
       </c>
       <c r="G327" t="str">
-        <v>-97024.74</v>
-      </c>
-      <c r="L327" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P327" s="1">
-        <v>43828.91666666667</v>
+        <v>-97.024,74</v>
+      </c>
+      <c r="L327" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P327" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q327" t="str">
         <v>0</v>
@@ -8694,13 +8693,13 @@
         <v>K</v>
       </c>
       <c r="G328" t="str">
-        <v>-14000.00</v>
-      </c>
-      <c r="L328" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P328" s="1">
-        <v>43828.91666666667</v>
+        <v>-14.000,00</v>
+      </c>
+      <c r="L328" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P328" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q328" t="str">
         <v>0</v>
@@ -8717,13 +8716,13 @@
         <v>K</v>
       </c>
       <c r="G329" t="str">
-        <v>-1600.00</v>
-      </c>
-      <c r="L329" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P329" s="1">
-        <v>43828.91666666667</v>
+        <v>-1.600,00</v>
+      </c>
+      <c r="L329" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P329" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q329" t="str">
         <v>0</v>
@@ -8740,13 +8739,13 @@
         <v>K</v>
       </c>
       <c r="G330" t="str">
-        <v>-600.00</v>
-      </c>
-      <c r="L330" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P330" s="1">
-        <v>43828.91666666667</v>
+        <v>-600,00</v>
+      </c>
+      <c r="L330" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P330" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q330" t="str">
         <v>0</v>
@@ -8763,13 +8762,13 @@
         <v>K</v>
       </c>
       <c r="G331" t="str">
-        <v>-8000.00</v>
-      </c>
-      <c r="L331" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P331" s="1">
-        <v>43828.91666666667</v>
+        <v>-8.000,00</v>
+      </c>
+      <c r="L331" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P331" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q331" t="str">
         <v>0</v>
@@ -8786,13 +8785,13 @@
         <v>K</v>
       </c>
       <c r="G332" t="str">
-        <v>-19823.00</v>
-      </c>
-      <c r="L332" s="1">
-        <v>43737.875</v>
-      </c>
-      <c r="P332" s="1">
-        <v>43828.91666666667</v>
+        <v>-19.823,00</v>
+      </c>
+      <c r="L332" t="str">
+        <v>30.09.2019</v>
+      </c>
+      <c r="P332" t="str">
+        <v>30.12.2019</v>
       </c>
       <c r="Q332" t="str">
         <v>0</v>

--- a/Code/public/Venator_Consuting_Exported_file_text_analysis_1_1.xlsx
+++ b/Code/public/Venator_Consuting_Exported_file_text_analysis_1_1.xlsx
@@ -456,6 +456,9 @@
       <c r="C2" t="str">
         <v>550</v>
       </c>
+      <c r="D2" t="str">
+        <v>account 550</v>
+      </c>
       <c r="E2" t="str">
         <v>K</v>
       </c>
@@ -485,6 +488,9 @@
       <c r="C3" t="str">
         <v>550</v>
       </c>
+      <c r="D3" t="str">
+        <v>account 550</v>
+      </c>
       <c r="E3" t="str">
         <v>K</v>
       </c>
@@ -514,6 +520,9 @@
       <c r="C4" t="str">
         <v>550</v>
       </c>
+      <c r="D4" t="str">
+        <v>account 550</v>
+      </c>
       <c r="E4" t="str">
         <v>K</v>
       </c>
@@ -543,6 +552,9 @@
       <c r="C5" t="str">
         <v>550</v>
       </c>
+      <c r="D5" t="str">
+        <v>account 550</v>
+      </c>
       <c r="E5" t="str">
         <v>K</v>
       </c>
@@ -572,6 +584,9 @@
       <c r="C6" t="str">
         <v>550</v>
       </c>
+      <c r="D6" t="str">
+        <v>account 550</v>
+      </c>
       <c r="E6" t="str">
         <v>K</v>
       </c>
@@ -601,6 +616,9 @@
       <c r="C7" t="str">
         <v>550</v>
       </c>
+      <c r="D7" t="str">
+        <v>account 550</v>
+      </c>
       <c r="E7" t="str">
         <v>K</v>
       </c>
@@ -630,6 +648,9 @@
       <c r="C8" t="str">
         <v>550</v>
       </c>
+      <c r="D8" t="str">
+        <v>account 550</v>
+      </c>
       <c r="E8" t="str">
         <v>K</v>
       </c>
@@ -659,6 +680,9 @@
       <c r="C9" t="str">
         <v>550</v>
       </c>
+      <c r="D9" t="str">
+        <v>account 550</v>
+      </c>
       <c r="E9" t="str">
         <v>K</v>
       </c>
@@ -688,6 +712,9 @@
       <c r="C10" t="str">
         <v>550</v>
       </c>
+      <c r="D10" t="str">
+        <v>account 550</v>
+      </c>
       <c r="E10" t="str">
         <v>K</v>
       </c>
@@ -716,6 +743,9 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C11" t="str">
         <v>550</v>
+      </c>
+      <c r="D11" t="str">
+        <v>account 550</v>
       </c>
       <c r="E11" t="str">
         <v>K</v>
@@ -752,6 +782,9 @@
       <c r="C12" t="str">
         <v>550</v>
       </c>
+      <c r="D12" t="str">
+        <v>account 550</v>
+      </c>
       <c r="E12" t="str">
         <v>K</v>
       </c>
@@ -787,6 +820,9 @@
       <c r="C13" t="str">
         <v>550</v>
       </c>
+      <c r="D13" t="str">
+        <v>account 550</v>
+      </c>
       <c r="E13" t="str">
         <v>K</v>
       </c>
@@ -822,6 +858,9 @@
       <c r="C14" t="str">
         <v>550</v>
       </c>
+      <c r="D14" t="str">
+        <v>account 550</v>
+      </c>
       <c r="E14" t="str">
         <v>K</v>
       </c>
@@ -849,13 +888,16 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="str">
-        <v>fffffff</v>
+        <v/>
       </c>
       <c r="C15" t="str">
         <v>550</v>
+      </c>
+      <c r="D15" t="str">
+        <v>account 550</v>
       </c>
       <c r="E15" t="str">
         <v>K</v>
@@ -885,6 +927,9 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C16" t="str">
         <v>550</v>
+      </c>
+      <c r="D16" t="str">
+        <v>account 550</v>
       </c>
       <c r="E16" t="str">
         <v>K</v>
